--- a/VitalSimulationBase.xlsx
+++ b/VitalSimulationBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Projects\PhD Arnold\Vital Project\Model\VitalModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4137148fa8ea9492/Projects/PhD Arnold/Vital Project/Model/VitalModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7B7823-D990-4BEA-A04E-35E433DE9420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6F7B7823-D990-4BEA-A04E-35E433DE9420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E2AD93D-D148-428A-8738-965B060BAF0C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="837" activeTab="3" xr2:uid="{887B8138-EB99-461C-B351-305AA9FB1128}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="837" xr2:uid="{887B8138-EB99-461C-B351-305AA9FB1128}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters_1" sheetId="11" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="306">
   <si>
     <t>K1</t>
   </si>
@@ -882,15 +882,6 @@
     <t>zie sheet</t>
   </si>
   <si>
-    <t>No vaccination</t>
-  </si>
-  <si>
-    <t>Including 40-60 group (0.45)</t>
-  </si>
-  <si>
-    <t>Including 50-60 group (0.45)</t>
-  </si>
-  <si>
     <t>Future</t>
   </si>
   <si>
@@ -939,15 +930,6 @@
     <t>Based on GDP World Bank, cbs, zie epi sheet</t>
   </si>
   <si>
-    <t>Increasing 60+ uptake +20%</t>
-  </si>
-  <si>
-    <t>Increasing 60+ uptake +10%</t>
-  </si>
-  <si>
-    <t>Increasing 60+ uptake +30%</t>
-  </si>
-  <si>
     <t>Fraction vaccinated</t>
   </si>
   <si>
@@ -982,132 +964,6 @@
   </si>
   <si>
     <t>Assumed by normal top age</t>
-  </si>
-  <si>
-    <t>Uptake 60+ 65.4%</t>
-  </si>
-  <si>
-    <t>Uptake 60+ 68.8%</t>
-  </si>
-  <si>
-    <t>Uptake 60+ 72.3%</t>
-  </si>
-  <si>
-    <t>Uptake 60+ 75.8%</t>
-  </si>
-  <si>
-    <t>Uptake 60+ 79.2%</t>
-  </si>
-  <si>
-    <t>Uptake 60+ 82.7%</t>
-  </si>
-  <si>
-    <t>Uptake 60+ 86.2%</t>
-  </si>
-  <si>
-    <t>Uptake 60+ 89.6%</t>
-  </si>
-  <si>
-    <t>Uptake 60+ 93.1%</t>
-  </si>
-  <si>
-    <t>Uptake 60+ 96.5%</t>
-  </si>
-  <si>
-    <t>Uptake 60+ 100.0%</t>
-  </si>
-  <si>
-    <t>Uptake population 0.0%</t>
-  </si>
-  <si>
-    <t>Uptake population 10.0%</t>
-  </si>
-  <si>
-    <t>Uptake population 20.0%</t>
-  </si>
-  <si>
-    <t>Uptake population 30.0%</t>
-  </si>
-  <si>
-    <t>Uptake population 40.0%</t>
-  </si>
-  <si>
-    <t>Uptake population 50.0%</t>
-  </si>
-  <si>
-    <t>Uptake population 60.0%</t>
-  </si>
-  <si>
-    <t>Uptake population 70.0%</t>
-  </si>
-  <si>
-    <t>Uptake population 80.0%</t>
-  </si>
-  <si>
-    <t>Uptake population 90.0%</t>
-  </si>
-  <si>
-    <t>Uptake population 100.0%</t>
-  </si>
-  <si>
-    <t>Uptake group population 100.0%</t>
-  </si>
-  <si>
-    <t>Uptake group population 90.0%</t>
-  </si>
-  <si>
-    <t>Uptake group population 79.1%</t>
-  </si>
-  <si>
-    <t>Uptake group population 66.3%</t>
-  </si>
-  <si>
-    <t>Uptake group population 53.6%</t>
-  </si>
-  <si>
-    <t>Uptake group population 41.7%</t>
-  </si>
-  <si>
-    <t>Uptake group population 27.5%</t>
-  </si>
-  <si>
-    <t>Uptake group population 14.8%</t>
-  </si>
-  <si>
-    <t>Uptake group population 5.1%</t>
-  </si>
-  <si>
-    <t>Uptake group population 0.8%</t>
-  </si>
-  <si>
-    <t>Uptake group population 0.0%</t>
-  </si>
-  <si>
-    <t>Uptake group population 10.0%</t>
-  </si>
-  <si>
-    <t>Uptake group population 20.9%</t>
-  </si>
-  <si>
-    <t>Uptake group population 33.7%</t>
-  </si>
-  <si>
-    <t>Uptake group population 46.4%</t>
-  </si>
-  <si>
-    <t>Uptake group population 58.3%</t>
-  </si>
-  <si>
-    <t>Uptake group population 72.5%</t>
-  </si>
-  <si>
-    <t>Uptake group population 85.2%</t>
-  </si>
-  <si>
-    <t>Uptake group population 94.9%</t>
-  </si>
-  <si>
-    <t>Uptake group population 99.2%</t>
   </si>
   <si>
     <t>Uptake0</t>
@@ -4687,8 +4543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53000DF-8E15-439A-B399-3ECA6DD1BBDB}">
   <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D99" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="J55" sqref="J55:M55"/>
       <selection pane="topRight" activeCell="J55" sqref="J55:M55"/>
       <selection pane="bottomLeft" activeCell="J55" sqref="J55:M55"/>
@@ -5000,7 +4856,7 @@
         <v>7.7186210489618209E-3</v>
       </c>
       <c r="N8" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -5044,7 +4900,7 @@
         <v>2.7675569376990568E-2</v>
       </c>
       <c r="N9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -5701,7 +5557,7 @@
         <v>202</v>
       </c>
       <c r="B32" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -5737,10 +5593,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B36" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D36">
         <v>8.0975000000000003E-4</v>
@@ -5773,7 +5629,7 @@
         <v>9.6113249999999997E-2</v>
       </c>
       <c r="N36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -5833,7 +5689,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -5869,7 +5725,7 @@
         <v>0.9</v>
       </c>
       <c r="N40" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -6337,12 +6193,12 @@
         <v>0.74855466066564025</v>
       </c>
       <c r="N55" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="D56" s="59">
         <v>0</v>
@@ -6416,7 +6272,7 @@
         <v>0.31</v>
       </c>
       <c r="N57" s="29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6460,7 +6316,7 @@
         <v>0.24977435437416431</v>
       </c>
       <c r="N58" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -6504,15 +6360,15 @@
         <v>0.26</v>
       </c>
       <c r="N59" s="29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6530,7 +6386,7 @@
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
       <c r="N60" s="29" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
@@ -6547,7 +6403,7 @@
         <v>7</v>
       </c>
       <c r="N61" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -6564,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -6625,7 +6481,7 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="29" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -6651,7 +6507,7 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -6677,7 +6533,7 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -6703,7 +6559,7 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -6711,7 +6567,7 @@
         <v>240</v>
       </c>
       <c r="B70" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -6729,7 +6585,7 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -6755,7 +6611,7 @@
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -6805,15 +6661,15 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="62">
@@ -6829,7 +6685,7 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="29" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -6922,7 +6778,7 @@
         <v>500</v>
       </c>
       <c r="N78" s="29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O78" t="s">
         <v>268</v>
@@ -6969,7 +6825,7 @@
         <v>2500</v>
       </c>
       <c r="N79" s="29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O79" t="s">
         <v>268</v>
@@ -7016,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="N80" s="73" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -7154,10 +7010,10 @@
         <v>0</v>
       </c>
       <c r="N83" s="29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O83" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -7242,7 +7098,7 @@
         <v>0.27903808437325295</v>
       </c>
       <c r="N85" s="29" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -7283,7 +7139,7 @@
         <v>0.17944505081036816</v>
       </c>
       <c r="N86" s="29" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -7324,7 +7180,7 @@
         <v>7.9852017247483364E-2</v>
       </c>
       <c r="N87" s="29" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -8059,10 +7915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB261DB-46E7-492B-AFB6-C2555F1B51D3}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="M53" sqref="A4:M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8169,2106 +8025,309 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="64">
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="E5" s="64">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="F5" s="64">
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="G5" s="64">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="H5" s="64">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="I5" s="64">
-        <v>0.45</v>
-      </c>
-      <c r="J5" s="64">
-        <v>0.45399999999999996</v>
-      </c>
-      <c r="K5" s="64">
-        <v>0.66199999999999992</v>
-      </c>
-      <c r="L5" s="64">
-        <v>0.76350000000000007</v>
-      </c>
-      <c r="M5" s="64">
-        <v>0.73899999999999999</v>
-      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="64">
-        <v>9.0000000000000011E-3</v>
-      </c>
-      <c r="E6" s="64">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="F6" s="64">
-        <v>2.6000000000000002E-2</v>
-      </c>
-      <c r="G6" s="64">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="H6" s="64">
-        <v>0.45</v>
-      </c>
-      <c r="I6" s="64">
-        <v>0.45</v>
-      </c>
-      <c r="J6" s="64">
-        <v>0.45399999999999996</v>
-      </c>
-      <c r="K6" s="64">
-        <v>0.66199999999999992</v>
-      </c>
-      <c r="L6" s="64">
-        <v>0.76350000000000007</v>
-      </c>
-      <c r="M6" s="64">
-        <v>0.73899999999999999</v>
-      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C7">
-        <f>+C6+1</f>
-        <v>4</v>
-      </c>
-      <c r="D7" s="59">
-        <v>9.0262679016149556E-3</v>
-      </c>
-      <c r="E7" s="59">
-        <v>2.2057850536201969E-2</v>
-      </c>
-      <c r="F7" s="59">
-        <v>2.6002433726858301E-2</v>
-      </c>
-      <c r="G7" s="59">
-        <v>3.3866401295262326E-2</v>
-      </c>
-      <c r="H7" s="60">
-        <v>6.3599265897090668E-2</v>
-      </c>
-      <c r="I7" s="60">
-        <v>0.1468412890180795</v>
-      </c>
-      <c r="J7">
-        <v>0.49538203428877747</v>
-      </c>
-      <c r="K7">
-        <v>0.72405397025988238</v>
-      </c>
-      <c r="L7">
-        <v>0.83417324678572813</v>
-      </c>
-      <c r="M7">
-        <v>0.82341012673220437</v>
-      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ref="C8:C53" si="0">+C7+1</f>
-        <v>5</v>
-      </c>
-      <c r="D8" s="59">
-        <v>9.0262679016149556E-3</v>
-      </c>
-      <c r="E8" s="59">
-        <v>2.2057850536201969E-2</v>
-      </c>
-      <c r="F8" s="59">
-        <v>2.6002433726858301E-2</v>
-      </c>
-      <c r="G8" s="59">
-        <v>3.3866401295262326E-2</v>
-      </c>
-      <c r="H8" s="60">
-        <v>6.3599265897090668E-2</v>
-      </c>
-      <c r="I8" s="60">
-        <v>0.1468412890180795</v>
-      </c>
-      <c r="J8">
-        <v>0.54041676467866628</v>
-      </c>
-      <c r="K8">
-        <v>0.78987705846532619</v>
-      </c>
-      <c r="L8">
-        <v>0.91000717831170319</v>
-      </c>
-      <c r="M8">
-        <v>0.89826559279876828</v>
-      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>295</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D9" s="59">
-        <v>9.0262679016149556E-3</v>
-      </c>
-      <c r="E9" s="59">
-        <v>2.2057850536201969E-2</v>
-      </c>
-      <c r="F9" s="59">
-        <v>2.6002433726858301E-2</v>
-      </c>
-      <c r="G9" s="59">
-        <v>3.3866401295262326E-2</v>
-      </c>
-      <c r="H9" s="60">
-        <v>6.3599265897090668E-2</v>
-      </c>
-      <c r="I9" s="60">
-        <v>0.1468412890180795</v>
-      </c>
-      <c r="J9">
-        <v>0.58545149506855509</v>
-      </c>
-      <c r="K9">
-        <v>0.85570014667076999</v>
-      </c>
-      <c r="L9">
-        <v>0.98584110983767859</v>
-      </c>
-      <c r="M9">
-        <v>0.9731210588653324</v>
-      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D10" s="59">
-        <v>9.0262679016149556E-3</v>
-      </c>
-      <c r="E10" s="59">
-        <v>2.2057850536201969E-2</v>
-      </c>
-      <c r="F10" s="59">
-        <v>2.6002433726858301E-2</v>
-      </c>
-      <c r="G10" s="59">
-        <v>3.3866401295262326E-2</v>
-      </c>
-      <c r="H10" s="60">
-        <v>6.3599265897090668E-2</v>
-      </c>
-      <c r="I10" s="60">
-        <v>0.1468412890180795</v>
-      </c>
-      <c r="J10" s="66">
-        <v>0.45034730389888855</v>
-      </c>
-      <c r="K10" s="66">
-        <v>0.65823088205443847</v>
-      </c>
-      <c r="L10" s="66">
-        <v>0.75833931525975273</v>
-      </c>
-      <c r="M10" s="66">
-        <v>0.74855466066564025</v>
-      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
       <c r="N10" s="18"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D11" s="59">
-        <v>9.0262679016149556E-3</v>
-      </c>
-      <c r="E11" s="59">
-        <v>2.2057850536201969E-2</v>
-      </c>
-      <c r="F11" s="59">
-        <v>2.6002433726858301E-2</v>
-      </c>
-      <c r="G11" s="59">
-        <v>3.3866401295262326E-2</v>
-      </c>
-      <c r="H11" s="60">
-        <v>6.3599265897090668E-2</v>
-      </c>
-      <c r="I11" s="60">
-        <v>0.1468412890180795</v>
-      </c>
-      <c r="J11" s="67">
-        <v>0.50531257350899972</v>
-      </c>
-      <c r="K11" s="67">
-        <v>0.69240779384899465</v>
-      </c>
-      <c r="L11" s="67">
-        <v>0.78250538373377743</v>
-      </c>
-      <c r="M11" s="67">
-        <v>0.77369919459907621</v>
-      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
       <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>310</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D12" s="59">
-        <v>9.0262679016149556E-3</v>
-      </c>
-      <c r="E12" s="59">
-        <v>2.2057850536201969E-2</v>
-      </c>
-      <c r="F12" s="59">
-        <v>2.6002433726858301E-2</v>
-      </c>
-      <c r="G12" s="59">
-        <v>3.3866401295262326E-2</v>
-      </c>
-      <c r="H12" s="60">
-        <v>6.3599265897090668E-2</v>
-      </c>
-      <c r="I12" s="60">
-        <v>0.1468412890180795</v>
-      </c>
-      <c r="J12" s="67">
-        <v>0.56027784311911089</v>
-      </c>
-      <c r="K12" s="67">
-        <v>0.72658470564355082</v>
-      </c>
-      <c r="L12" s="67">
-        <v>0.80667145220780212</v>
-      </c>
-      <c r="M12" s="67">
-        <v>0.79884372853251218</v>
-      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D13" s="59">
-        <v>9.0262679016149556E-3</v>
-      </c>
-      <c r="E13" s="59">
-        <v>2.2057850536201969E-2</v>
-      </c>
-      <c r="F13" s="59">
-        <v>2.6002433726858301E-2</v>
-      </c>
-      <c r="G13" s="59">
-        <v>3.3866401295262326E-2</v>
-      </c>
-      <c r="H13" s="60">
-        <v>6.3599265897090668E-2</v>
-      </c>
-      <c r="I13" s="60">
-        <v>0.1468412890180795</v>
-      </c>
-      <c r="J13" s="67">
-        <v>0.61524311272922205</v>
-      </c>
-      <c r="K13" s="67">
-        <v>0.760761617438107</v>
-      </c>
-      <c r="L13" s="67">
-        <v>0.83083752068182681</v>
-      </c>
-      <c r="M13" s="67">
-        <v>0.82398826246594814</v>
-      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>312</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D14" s="59">
-        <v>9.0262679016149556E-3</v>
-      </c>
-      <c r="E14" s="59">
-        <v>2.2057850536201969E-2</v>
-      </c>
-      <c r="F14" s="59">
-        <v>2.6002433726858301E-2</v>
-      </c>
-      <c r="G14" s="59">
-        <v>3.3866401295262326E-2</v>
-      </c>
-      <c r="H14" s="60">
-        <v>6.3599265897090668E-2</v>
-      </c>
-      <c r="I14" s="60">
-        <v>0.1468412890180795</v>
-      </c>
-      <c r="J14" s="67">
-        <v>0.67020838233933322</v>
-      </c>
-      <c r="K14" s="67">
-        <v>0.79493852923266317</v>
-      </c>
-      <c r="L14" s="67">
-        <v>0.85500358915585151</v>
-      </c>
-      <c r="M14" s="67">
-        <v>0.8491327963993841</v>
-      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>313</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D15" s="59">
-        <v>9.0262679016149556E-3</v>
-      </c>
-      <c r="E15" s="59">
-        <v>2.2057850536201969E-2</v>
-      </c>
-      <c r="F15" s="59">
-        <v>2.6002433726858301E-2</v>
-      </c>
-      <c r="G15" s="59">
-        <v>3.3866401295262326E-2</v>
-      </c>
-      <c r="H15" s="60">
-        <v>6.3599265897090668E-2</v>
-      </c>
-      <c r="I15" s="60">
-        <v>0.1468412890180795</v>
-      </c>
-      <c r="J15" s="67">
-        <v>0.72517365194944439</v>
-      </c>
-      <c r="K15" s="67">
-        <v>0.82911544102721935</v>
-      </c>
-      <c r="L15" s="67">
-        <v>0.8791696576298762</v>
-      </c>
-      <c r="M15" s="67">
-        <v>0.87427733033282007</v>
-      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D16" s="59">
-        <v>9.0262679016149556E-3</v>
-      </c>
-      <c r="E16" s="59">
-        <v>2.2057850536201969E-2</v>
-      </c>
-      <c r="F16" s="59">
-        <v>2.6002433726858301E-2</v>
-      </c>
-      <c r="G16" s="59">
-        <v>3.3866401295262326E-2</v>
-      </c>
-      <c r="H16" s="60">
-        <v>6.3599265897090668E-2</v>
-      </c>
-      <c r="I16" s="60">
-        <v>0.1468412890180795</v>
-      </c>
-      <c r="J16" s="67">
-        <v>0.78013892155955555</v>
-      </c>
-      <c r="K16" s="67">
-        <v>0.86329235282177552</v>
-      </c>
-      <c r="L16" s="67">
-        <v>0.90333572610390089</v>
-      </c>
-      <c r="M16" s="67">
-        <v>0.89942186426625603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>315</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D17" s="59">
-        <v>9.0262679016149556E-3</v>
-      </c>
-      <c r="E17" s="59">
-        <v>2.2057850536201969E-2</v>
-      </c>
-      <c r="F17" s="59">
-        <v>2.6002433726858301E-2</v>
-      </c>
-      <c r="G17" s="59">
-        <v>3.3866401295262326E-2</v>
-      </c>
-      <c r="H17" s="60">
-        <v>6.3599265897090668E-2</v>
-      </c>
-      <c r="I17" s="60">
-        <v>0.1468412890180795</v>
-      </c>
-      <c r="J17" s="67">
-        <v>0.83510419116966672</v>
-      </c>
-      <c r="K17" s="67">
-        <v>0.8974692646163317</v>
-      </c>
-      <c r="L17" s="67">
-        <v>0.92750179457792559</v>
-      </c>
-      <c r="M17" s="67">
-        <v>0.924566398199692</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>316</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D18" s="59">
-        <v>9.0262679016149556E-3</v>
-      </c>
-      <c r="E18" s="59">
-        <v>2.2057850536201969E-2</v>
-      </c>
-      <c r="F18" s="59">
-        <v>2.6002433726858301E-2</v>
-      </c>
-      <c r="G18" s="59">
-        <v>3.3866401295262326E-2</v>
-      </c>
-      <c r="H18" s="60">
-        <v>6.3599265897090668E-2</v>
-      </c>
-      <c r="I18" s="60">
-        <v>0.1468412890180795</v>
-      </c>
-      <c r="J18" s="67">
-        <v>0.89006946077977789</v>
-      </c>
-      <c r="K18" s="67">
-        <v>0.93164617641088787</v>
-      </c>
-      <c r="L18" s="67">
-        <v>0.95166786305195028</v>
-      </c>
-      <c r="M18" s="67">
-        <v>0.94971093213312796</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>317</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D19" s="59">
-        <v>9.0262679016149556E-3</v>
-      </c>
-      <c r="E19" s="59">
-        <v>2.2057850536201969E-2</v>
-      </c>
-      <c r="F19" s="59">
-        <v>2.6002433726858301E-2</v>
-      </c>
-      <c r="G19" s="59">
-        <v>3.3866401295262326E-2</v>
-      </c>
-      <c r="H19" s="60">
-        <v>6.3599265897090668E-2</v>
-      </c>
-      <c r="I19" s="60">
-        <v>0.1468412890180795</v>
-      </c>
-      <c r="J19" s="67">
-        <v>0.94503473038988905</v>
-      </c>
-      <c r="K19" s="67">
-        <v>0.96582308820544405</v>
-      </c>
-      <c r="L19" s="67">
-        <v>0.97583393152597497</v>
-      </c>
-      <c r="M19" s="67">
-        <v>0.97485546606656392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>318</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D20" s="59">
-        <v>9.0262679016149556E-3</v>
-      </c>
-      <c r="E20" s="59">
-        <v>2.2057850536201969E-2</v>
-      </c>
-      <c r="F20" s="59">
-        <v>2.6002433726858301E-2</v>
-      </c>
-      <c r="G20" s="59">
-        <v>3.3866401295262326E-2</v>
-      </c>
-      <c r="H20" s="60">
-        <v>6.3599265897090668E-2</v>
-      </c>
-      <c r="I20" s="60">
-        <v>0.1468412890180795</v>
-      </c>
-      <c r="J20" s="67">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="K20" s="67">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="L20" s="67">
-        <v>0.99999999999999967</v>
-      </c>
-      <c r="M20" s="67">
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>319</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>320</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D22" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="H22" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="I22" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="J22" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="K22" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="L22" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="M22" s="18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>321</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D23" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="F23" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="G23" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="H23" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="I23" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="J23" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="K23" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="L23" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="M23" s="18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>322</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D24" s="18">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="E24" s="18">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F24" s="18">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="G24" s="18">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="H24" s="18">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="I24" s="18">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="J24" s="18">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="K24" s="18">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="L24" s="18">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="M24" s="18">
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>323</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D25" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="E25" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="F25" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="G25" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="H25" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="I25" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="J25" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="K25" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="L25" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="M25" s="18">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>324</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D26" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="H26" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="I26" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="J26" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="K26" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="L26" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="M26" s="18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
-        <v>325</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D27" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="E27" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="F27" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="G27" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="H27" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="I27" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="J27" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="K27" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="L27" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="M27" s="18">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>326</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D28" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="E28" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="F28" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="G28" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="H28" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="I28" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="J28" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="K28" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="L28" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="M28" s="18">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>327</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D29" s="18">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="E29" s="18">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="F29" s="18">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="G29" s="18">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="H29" s="18">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="I29" s="18">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="J29" s="18">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="K29" s="18">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="L29" s="18">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="M29" s="18">
-        <v>0.79999999999999993</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>328</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D30" s="18">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="E30" s="18">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="F30" s="18">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="G30" s="18">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H30" s="18">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="I30" s="18">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="J30" s="18">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="K30" s="18">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="L30" s="18">
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="M30" s="18">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
-        <v>329</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D31" s="18">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="E31" s="18">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="F31" s="18">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="G31" s="18">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="H31" s="18">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="I31" s="18">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="J31" s="18">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="K31" s="18">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="L31" s="18">
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="M31" s="18">
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>330</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" t="s">
-        <v>331</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>332</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
-        <v>333</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>334</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" t="s">
-        <v>335</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" t="s">
-        <v>336</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>337</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>338</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" t="s">
-        <v>339</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" t="s">
-        <v>340</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>340</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" t="s">
-        <v>341</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" t="s">
-        <v>342</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" t="s">
-        <v>343</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" t="s">
-        <v>344</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" t="s">
-        <v>345</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" t="s">
-        <v>346</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" t="s">
-        <v>347</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" t="s">
-        <v>348</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" t="s">
-        <v>349</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" t="s">
-        <v>330</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10306,12 +8365,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10586,7 +8645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF56A02-A0C6-4DFF-917B-BAFD6A899654}">
   <dimension ref="L2:L43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>

--- a/VitalSimulationBase.xlsx
+++ b/VitalSimulationBase.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4137148fa8ea9492/Projects/PhD Arnold/Vital Project/Model/VitalModel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{6F7B7823-D990-4BEA-A04E-35E433DE9420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E2AD93D-D148-428A-8738-965B060BAF0C}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{6F7B7823-D990-4BEA-A04E-35E433DE9420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9D2092C-0EED-4D04-9725-3C271151D991}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="837" xr2:uid="{887B8138-EB99-461C-B351-305AA9FB1128}"/>
+    <workbookView xWindow="-23148" yWindow="-84" windowWidth="23256" windowHeight="12720" tabRatio="837" xr2:uid="{887B8138-EB99-461C-B351-305AA9FB1128}"/>
   </bookViews>
   <sheets>
-    <sheet name="Parameters_1" sheetId="11" r:id="rId1"/>
-    <sheet name="Scenarios_1" sheetId="35" r:id="rId2"/>
+    <sheet name="Parameters_1" sheetId="36" r:id="rId1"/>
+    <sheet name="Parameters_OLD" sheetId="11" r:id="rId2"/>
     <sheet name="Columns" sheetId="31" r:id="rId3"/>
     <sheet name="Model v4" sheetId="29" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="Codes">[1]Coding!$B$4:$C$95</definedName>
+    <definedName name="Ro" localSheetId="0">#REF!</definedName>
     <definedName name="Ro">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -42,6 +47,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={F62A0373-91B1-4CDE-A67C-C81621EB486E}</author>
+  </authors>
+  <commentList>
+    <comment ref="D58" authorId="0" shapeId="0" xr:uid="{F62A0373-91B1-4CDE-A67C-C81621EB486E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is dit infection + vaccine?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={1819E592-85E5-4F96-8ADE-3B3A1EA32581}</author>
   </authors>
   <commentList>
@@ -58,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="348">
   <si>
     <t>K1</t>
   </si>
@@ -696,21 +719,6 @@
     <t>Productivity loss in ICU (day)</t>
   </si>
   <si>
-    <t>K12</t>
-  </si>
-  <si>
-    <t>K13</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>K14</t>
-  </si>
-  <si>
     <t>Cost_Vac</t>
   </si>
   <si>
@@ -976,13 +984,154 @@
   </si>
   <si>
     <t>subscripts in the output file correspond to thje age groups</t>
+  </si>
+  <si>
+    <t>MortalityRate2</t>
+  </si>
+  <si>
+    <t>Pop_growth_step</t>
+  </si>
+  <si>
+    <t>Nursing_enabled</t>
+  </si>
+  <si>
+    <t>YearDays</t>
+  </si>
+  <si>
+    <t>CFR0</t>
+  </si>
+  <si>
+    <t>NH_Frac</t>
+  </si>
+  <si>
+    <t>CFR2</t>
+  </si>
+  <si>
+    <t>Calib Model Inc and real deaths</t>
+  </si>
+  <si>
+    <t>based om https://www.vzinfo.nl/influenza/sterftecijfers</t>
+  </si>
+  <si>
+    <t>CFR_withNH</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jval.2020.10.011</t>
+  </si>
+  <si>
+    <t>https://www.ecdc.europa.eu/en/seasonal-influenza/prevention-and-control/vaccines/timing#:~:text=The%20protection%20provided%20by%20the,a%20combination%20of%20the%20two.</t>
+  </si>
+  <si>
+    <t>https://www.rivm.nl/sites/default/files/2022-08/Referentiecijfers%20Incidentie%20SNIV%202016-2020_def.pdf</t>
+  </si>
+  <si>
+    <t>assumption: 80% received  3 persons per week</t>
+  </si>
+  <si>
+    <t>Nursing_R0_effective</t>
+  </si>
+  <si>
+    <t>https://www.zorginstituutnederland.nl/binaries/zinl/documenten/publicatie/2024/01/16/richtlijn-voor-het-uitvoeren-van-economische-evaluaties-in-de-gezondheidszorg/Richtlijn+voor+het+uitvoeren+van+economische+evaluaties+in+de+gezondheidszorg+%28versie+2024%29.pdf</t>
+  </si>
+  <si>
+    <t>https://www.medicijnkosten.nl/zoeken?trefwoord=influenza</t>
+  </si>
+  <si>
+    <t>SNPG</t>
+  </si>
+  <si>
+    <t>Net migration rate (year)</t>
+  </si>
+  <si>
+    <t>days in a year</t>
+  </si>
+  <si>
+    <t>Fraction in NH</t>
+  </si>
+  <si>
+    <t>CFR symptomatic without NH deaths</t>
+  </si>
+  <si>
+    <t>CFR symptomatic with NH deaths</t>
+  </si>
+  <si>
+    <t>Fraction that is symptomatic</t>
+  </si>
+  <si>
+    <t>Mortality effectiveness vaccine</t>
+  </si>
+  <si>
+    <t>Vaccine effectiveness infection</t>
+  </si>
+  <si>
+    <t>Vaccine effectiveness hospitalization</t>
+  </si>
+  <si>
+    <t>Vaccineeffectiveness on Length of stay</t>
+  </si>
+  <si>
+    <t>Nursing home time infection to death</t>
+  </si>
+  <si>
+    <t>Number of nursing homes</t>
+  </si>
+  <si>
+    <t>Other than influenza mortality (yearly)</t>
+  </si>
+  <si>
+    <t>Utility nursing home resident</t>
+  </si>
+  <si>
+    <t>Fraction normal population visiting  NH</t>
+  </si>
+  <si>
+    <t>Nursing home length of immunity  (days)</t>
+  </si>
+  <si>
+    <t>Vaccine uptake in nursing home</t>
+  </si>
+  <si>
+    <t>Effective Ro nursing home</t>
+  </si>
+  <si>
+    <t>Cost of stay in-patient (day)</t>
+  </si>
+  <si>
+    <t>Cost of stay in ICU (day)</t>
+  </si>
+  <si>
+    <t>Productivity loss at home (per day)</t>
+  </si>
+  <si>
+    <t>Productivity loss Inpatient (per day)</t>
+  </si>
+  <si>
+    <t>Productivity loss in ICU (per day)</t>
+  </si>
+  <si>
+    <t>Productivity loss premature death</t>
+  </si>
+  <si>
+    <t>Utility healthy</t>
+  </si>
+  <si>
+    <t>Relative health utility home</t>
+  </si>
+  <si>
+    <t>Relative health utility in-patient</t>
+  </si>
+  <si>
+    <t>Relative health utility ICU</t>
+  </si>
+  <si>
+    <t>Cost of vaccination</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -990,8 +1139,10 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0.0000000_ ;_ * \-#,##0.0000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,8 +1209,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1111,12 +1268,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,14 +1391,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1328,14 +1480,11 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="11" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="10" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1347,13 +1496,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{FA50937C-9342-4FB0-A6EB-2961F36EF878}"/>
     <cellStyle name="Comma 3" xfId="4" xr:uid="{7C6DDEB9-30D6-424A-B851-9C7C5947BF9F}"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4230,6 +4394,775 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Parameters_1"/>
+      <sheetName val="Coding"/>
+      <sheetName val="Scenarios_1"/>
+      <sheetName val="Columns"/>
+      <sheetName val="Model v4"/>
+      <sheetName val="Parameters_OLD"/>
+      <sheetName val="Result1"/>
+      <sheetName val="States_1"/>
+      <sheetName val="CEA_1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>An_0</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Initial Asymptomatic</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Av_0</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>Initial vaccinated Asymptomatic</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>BirthRate</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>Birth rate fraction (yearly)</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>C1</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>Contacts of C1 with different age groups</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>C10</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>Contacts of C10 with different age groups</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>C2</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>Contacts of C2 with different age groups</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>C3</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>Contacts of C3 with different age groups</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>C4</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>Contacts of C4 with different age groups</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>C5</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>Contacts of C5 with different age groups</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>C6</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>Contacts of C6 with different age groups</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>C7</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>Contacts of C7 with different age groups</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>C8</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>Contacts of C8 with different age groups</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>C9</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>Contacts of C9 with different age groups</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>CFR</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>CFR symptomatic without NH deaths</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>CFR_withNH</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>CFR symptomatic with NH deaths</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>CFR0</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>CFR symptomatic</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Cost Effectiveness</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>Based on GDP/capita 2019 (due to covid019)</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Cost_home</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Cost stay at Home (day)</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Cost_ICU</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>Cost of stay in ICU (day)</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Cost_inpatient</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>Cost of stay in-patient (day)</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Cost_Vac</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>Cost of vaccination</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>D_0</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>Initial Deaths</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Disease_name</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>Disease name</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>Duration_Asympt</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>Duration recovering period asymptomatic</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Duration_Home</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>Duration recovering period home</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>Duration_Icu</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Duration recovering period in ICU</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>Duration_In</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Duration recovering period in patient</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>Frac_Home</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Fraction of symptmatic recovering at home</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>Frac_Icu</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Fraction of symptmatic recovering in ICU</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>Frac_In</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Fraction of symptmatic recovering in hosptial</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Frac_Sympt</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Fraction that is symptomatic</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>I_0</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Initial infectious</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>inf_period</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Infectious period</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>Inflation</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Inflation for costs and productivity loss (yearly)</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>Iv_0</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Initial vaccinated infectious</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>LoIm_Inf</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Length Immunity by infection</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>LoIm_Vac</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Length Immunity by vaccination</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>MortalityRate</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Background mortality rate fraction (year)</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>NetMigrationRate</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Net migration rate (year)</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>NH_Frac</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Fraction in NH</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>Nhm_0</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Initial severity Home</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>Nicu_0</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Initial severity In</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>Nin_0</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v xml:space="preserve">Initial severity Out </v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>Nursing_BGRate</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Other than influenza mortality (yearly)</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>Nursing_CFR</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Nursing case-fatality rate due to disease</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>Nursing_Delay</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Nursing home time infection to death</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>Nursing_LoI</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Nursing home length of immunity  (days)</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>Nursing_number</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Number of nursing homes</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>Nursing_persons</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Number of persons per nursing homes</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>Nursing_R0</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Nursing homes R0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>Nursing_R0_effective</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Effective Ro nursing home</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>Nursing_uptake</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>Vaccine uptake in nursing home</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>Nursing_utility</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>Utility nursing home resident</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>Nursing_visitfraction</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Fraction normal population visiting  NH</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>Pop_frac</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Share in population</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>Pop_groupwidth</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>Number of years in age group</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>Pop_size</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>Population size</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>ProdLoss_home</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Productivity loss at home (per day)</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>ProdLoss_ICU</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Productivity loss in ICU (per day)</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>ProdLoss_inpatient</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>Productivity loss Inpatient (per day)</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>ProdLossDeath</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>Productivity loss premature death</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>R_0</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>Initial recovered</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>R0</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Basic reproduction number</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>Re</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>Discount rate effect</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>Report_duration</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>Report report_duration fraction (days)</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>Rf</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>Discount rate financial</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>Rv_0</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>Initial vaccinated recovered</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>S_0</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>Initial susceptible</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>SeasonA</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>Season multiplier (0= no seasonality)</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>SeasonB</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>Season shifter (&gt;0, the higher the more intense)</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>Sim_duration</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>Sim sim_duration fraction (days)</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>Sim_enabled</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>Simulation enabled - if 0 simulation will not run</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>StartDate</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>Start date of simulation</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>StepSize</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>time step (days) OBSOLETE</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>Sv_0</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>Initial vaccinated susceptible</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>Uptake</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>Fraction willing to vaccinate</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>Utility_Healthy</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>Utility healthy</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>Utility_Rel_Home</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>Relative health utility home</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>Utility_Rel_ICU</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>Relative health utility ICU</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>Utility_Rel_Inpatient</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>Relative health utility in-patient</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>Vac_CFR_Eff</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>Mortality effectiveness vaccine</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>Vac_Hosp_Eff</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>Vaccine effectiveness hospitalization</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>Vac_Inf_Eff</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>Vaccine effectiveness infection</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>Vac_Interval</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>Years between vaccination</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>Vac_Los_Eff</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>Vaccineeffectiveness on Length of stay</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>Vac_speed</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>Duration (days) vaccination of group</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>VacStart</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>First day vaccination within year (999=off)</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>Vhm_0</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>Initial vaccinated severity Home</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>Vicu_0</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>Initial vaccinated severity In</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>Vin_0</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v xml:space="preserve">Initial vaccinated severity Out </v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>YearDays</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>days in a year</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>YearVacStart</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>Year vaccination will start in simulation</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Dorst, WM van (gzw)" id="{910319C0-65AF-4B34-BFCF-EB720B4FF735}" userId="Dorst, WM van (gzw)" providerId="None"/>
@@ -4533,6 +5466,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D58" dT="2022-06-17T13:13:27.86" personId="{910319C0-65AF-4B34-BFCF-EB720B4FF735}" id="{F62A0373-91B1-4CDE-A67C-C81621EB486E}">
+    <text>Is dit infection + vaccine?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D50" dT="2022-06-17T13:13:27.86" personId="{910319C0-65AF-4B34-BFCF-EB720B4FF735}" id="{1819E592-85E5-4F96-8ADE-3B3A1EA32581}">
     <text>Is dit infection + vaccine?</text>
   </threadedComment>
@@ -4540,11 +5481,3917 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC089D9-12AA-4C71-BE2C-58859C379F5D}">
+  <dimension ref="A1:Q154"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D87" activePane="bottomRight" state="frozenSplit"/>
+      <selection activeCell="J55" sqref="J55:M55"/>
+      <selection pane="topRight" activeCell="J55" sqref="J55:M55"/>
+      <selection pane="bottomLeft" activeCell="J55" sqref="J55:M55"/>
+      <selection pane="bottomRight" activeCell="A105" sqref="A105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="7" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="12.6640625" style="37" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>151122</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="36"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3">
+        <v>40</v>
+      </c>
+      <c r="H3" s="37">
+        <v>50</v>
+      </c>
+      <c r="I3" s="37">
+        <v>60</v>
+      </c>
+      <c r="J3">
+        <v>70</v>
+      </c>
+      <c r="K3" s="3">
+        <v>80</v>
+      </c>
+      <c r="L3" s="3">
+        <v>90</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.10027638329857967</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.10901860714487209</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.12752767210158808</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.12767655151017529</v>
+      </c>
+      <c r="H4" s="38">
+        <v>0.11822006976161017</v>
+      </c>
+      <c r="I4" s="38">
+        <v>0.14244240330756353</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0.12655561386618425</v>
+      </c>
+      <c r="K4" s="15">
+        <v>9.7648829176686089E-2</v>
+      </c>
+      <c r="L4" s="15">
+        <v>4.2770959672240531E-2</v>
+      </c>
+      <c r="M4" s="15">
+        <v>7.8629101605002891E-3</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <v>17618286</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
+        <v>10</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10</v>
+      </c>
+      <c r="F6" s="15">
+        <v>10</v>
+      </c>
+      <c r="G6" s="15">
+        <v>10</v>
+      </c>
+      <c r="H6" s="38">
+        <v>10</v>
+      </c>
+      <c r="I6" s="38">
+        <v>10</v>
+      </c>
+      <c r="J6" s="15">
+        <v>10</v>
+      </c>
+      <c r="K6" s="15">
+        <v>10</v>
+      </c>
+      <c r="L6" s="15">
+        <v>10</v>
+      </c>
+      <c r="M6" s="15">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D7" s="9">
+        <f>+$D$5*D4</f>
+        <v>1766698</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" ref="E7:M7" si="0">+$D$5*E4</f>
+        <v>1920721</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>2246819</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>2249442</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="0"/>
+        <v>2082834.9999999998</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="0"/>
+        <v>2509591</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="0"/>
+        <v>2229693</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="0"/>
+        <v>1720405</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="0"/>
+        <v>753551</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="0"/>
+        <v>138531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5.4963473956551301</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.69225147377306795</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.52852173004642899</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1.31575335886843</v>
+      </c>
+      <c r="H8" s="38">
+        <v>1.3154686294486</v>
+      </c>
+      <c r="I8" s="38">
+        <v>0.35272369046464402</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0.67532429074258604</v>
+      </c>
+      <c r="K8" s="15">
+        <v>9.5856914667035983E-2</v>
+      </c>
+      <c r="L8" s="15">
+        <v>4.1986086941307212E-2</v>
+      </c>
+      <c r="M8" s="15">
+        <v>7.7186210489618209E-3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.69252564281880702</v>
+      </c>
+      <c r="E9" s="15">
+        <v>5.9060213048058001</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.28648596619044298</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.44852620123390202</v>
+      </c>
+      <c r="H9" s="38">
+        <v>1.0033821447879501</v>
+      </c>
+      <c r="I9" s="38">
+        <v>0.40970209688093401</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0.169227742476251</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0.34370060083318144</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0.15054358215562308</v>
+      </c>
+      <c r="M9" s="15">
+        <v>2.7675569376990568E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.52045681729294402</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.28200268027603398</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1.5652584394480999</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1.0862638332411101</v>
+      </c>
+      <c r="H10" s="38">
+        <v>0.60561669956702702</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0.48259443027760301</v>
+      </c>
+      <c r="J10" s="15">
+        <v>6.05689352472547E-2</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.15495582997779131</v>
+      </c>
+      <c r="L10" s="15">
+        <v>6.7871879374678992E-2</v>
+      </c>
+      <c r="M10" s="15">
+        <v>1.2477402752638716E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1.64391432732903</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.56017089603344905</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1.3782187677893001</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1.9437986219005301</v>
+      </c>
+      <c r="H11" s="38">
+        <v>0.80129755063003005</v>
+      </c>
+      <c r="I11" s="38">
+        <v>0.26722949773718402</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0.53515292342225995</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.19466830291609497</v>
+      </c>
+      <c r="L11" s="15">
+        <v>8.5266256684168137E-2</v>
+      </c>
+      <c r="M11" s="15">
+        <v>1.5675143161795944E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1.66528395080658</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1.2697031564360199</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.77854512432089096</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.81188949639860497</v>
+      </c>
+      <c r="H12" s="38">
+        <v>1.9458707272173099</v>
+      </c>
+      <c r="I12" s="38">
+        <v>0.470231319704979</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0.57045359799155804</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0.23352745793401436</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0.10228687399399239</v>
+      </c>
+      <c r="M12" s="15">
+        <v>1.8804172433268297E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.399374213374665</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.463704816543761</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.55488865049120295</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.24217264915085801</v>
+      </c>
+      <c r="H13" s="38">
+        <v>0.42058050816409298</v>
+      </c>
+      <c r="I13" s="38">
+        <v>1.5232705637642301</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0.62371238245356098</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0.22426570011040731</v>
+      </c>
+      <c r="L13" s="15">
+        <v>9.8230150798153656E-2</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1.8058394216475093E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.51968239347122602</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.130174291661763</v>
+      </c>
+      <c r="F14" s="15">
+        <v>4.7331875970971701E-2</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0.329608832825589</v>
+      </c>
+      <c r="H14" s="38">
+        <v>0.346767314526434</v>
+      </c>
+      <c r="I14" s="38">
+        <v>0.42390116298388503</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1.26848240507758</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.33865510726396986</v>
+      </c>
+      <c r="L14" s="15">
+        <v>0.14833361605777229</v>
+      </c>
+      <c r="M14" s="15">
+        <v>2.7269294534940907E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
+        <v>7.7985054077897298E-2</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.2795092935956261</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0.12801887259205208</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.1267589056051128</v>
+      </c>
+      <c r="H15" s="38">
+        <v>0.15007836245404774</v>
+      </c>
+      <c r="I15" s="38">
+        <v>0.16114075618529633</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0.35803042054924672</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.24882317862073133</v>
+      </c>
+      <c r="L15" s="15">
+        <v>0.1089865206581187</v>
+      </c>
+      <c r="M15" s="15">
+        <v>2.0035819331790206E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <v>3.4158070620263013E-2</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.12242728177276725</v>
+      </c>
+      <c r="F16" s="15">
+        <v>5.6073278943396136E-2</v>
+      </c>
+      <c r="G16" s="15">
+        <v>5.5521403435608678E-2</v>
+      </c>
+      <c r="H16" s="38">
+        <v>6.5735510013985157E-2</v>
+      </c>
+      <c r="I16" s="38">
+        <v>7.0580925982071802E-2</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0.15682015655343098</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0.1089865206581187</v>
+      </c>
+      <c r="L16" s="15">
+        <v>4.7736958232768446E-2</v>
+      </c>
+      <c r="M16" s="15">
+        <v>8.7758473692472663E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15">
+        <v>6.2795373917567034E-3</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2.2506736466759675E-2</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1.0308376480566823E-2</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1.020692101707556E-2</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1.2084657757401128E-2</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1.2975427352922881E-2</v>
+      </c>
+      <c r="J17" s="15">
+        <v>2.8829439689554322E-2</v>
+      </c>
+      <c r="K17" s="15">
+        <v>2.0035819331790206E-2</v>
+      </c>
+      <c r="L17" s="15">
+        <v>8.7758473692472645E-3</v>
+      </c>
+      <c r="M17" s="15">
+        <v>1.6133306331080352E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>0.0102681967781595*0.93</f>
+        <v>9.5494230036883357E-3</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <f>+D20*0.67</f>
+        <v>2.9534689092681283E-4</v>
+      </c>
+      <c r="E21" s="26">
+        <f t="shared" ref="E21:M21" si="1">+E20*0.67</f>
+        <v>8.8172910600282998E-5</v>
+      </c>
+      <c r="F21" s="26">
+        <f t="shared" si="1"/>
+        <v>1.9391019729266007E-4</v>
+      </c>
+      <c r="G21" s="26">
+        <f t="shared" si="1"/>
+        <v>3.5972266585648316E-4</v>
+      </c>
+      <c r="H21" s="26">
+        <f t="shared" si="1"/>
+        <v>8.4962771693515484E-4</v>
+      </c>
+      <c r="I21" s="26">
+        <f t="shared" si="1"/>
+        <v>2.1472711011308061E-3</v>
+      </c>
+      <c r="J21" s="26">
+        <f t="shared" si="1"/>
+        <v>6.0045045645474833E-3</v>
+      </c>
+      <c r="K21" s="26">
+        <f t="shared" si="1"/>
+        <v>1.6065070843900277E-2</v>
+      </c>
+      <c r="L21" s="26">
+        <f t="shared" si="1"/>
+        <v>5.1121635480781732E-2</v>
+      </c>
+      <c r="M21" s="26">
+        <f t="shared" si="1"/>
+        <v>0.14280174949859178</v>
+      </c>
+      <c r="N21" s="29"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="31">
+        <v>5.2123767822472421E-3</v>
+      </c>
+      <c r="E22" s="31">
+        <v>5.2123767822472421E-3</v>
+      </c>
+      <c r="F22" s="31">
+        <v>5.2123767822472421E-3</v>
+      </c>
+      <c r="G22" s="31">
+        <v>5.2123767822472421E-3</v>
+      </c>
+      <c r="H22" s="41">
+        <v>5.2123767822472421E-3</v>
+      </c>
+      <c r="I22" s="41">
+        <v>5.2123767822472421E-3</v>
+      </c>
+      <c r="J22" s="31">
+        <v>5.2123767822472421E-3</v>
+      </c>
+      <c r="K22" s="31">
+        <v>5.2123767822472421E-3</v>
+      </c>
+      <c r="L22" s="31">
+        <v>5.2123767822472421E-3</v>
+      </c>
+      <c r="M22" s="31">
+        <v>5.2123767822472421E-3</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="23">
+        <v>0</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="N25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0</v>
+      </c>
+      <c r="D26" s="23">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" s="23">
+        <v>0</v>
+      </c>
+      <c r="D27" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="B28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0</v>
+      </c>
+      <c r="D28" s="23">
+        <v>365.24219900000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>35*365</f>
+        <v>12775</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f>30*365</f>
+        <v>10950</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2023</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10">
+        <v>44562</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0.63</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" t="s">
+        <v>293</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D36" s="34"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>305</v>
+      </c>
+      <c r="B39" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" s="74">
+        <v>7.7741851248839457E-6</v>
+      </c>
+      <c r="E39" s="74">
+        <v>7.8756810779314894E-6</v>
+      </c>
+      <c r="F39" s="74">
+        <v>7.9022264140696013E-6</v>
+      </c>
+      <c r="G39" s="74">
+        <v>1.3633979146270128E-5</v>
+      </c>
+      <c r="H39" s="74">
+        <v>5.2620064396094578E-5</v>
+      </c>
+      <c r="I39" s="74">
+        <v>2.2236295053258508E-4</v>
+      </c>
+      <c r="J39" s="74">
+        <v>5.3966635455411757E-4</v>
+      </c>
+      <c r="K39" s="74">
+        <v>2.4260943135728675E-3</v>
+      </c>
+      <c r="L39" s="74">
+        <v>1.5757377511099721E-2</v>
+      </c>
+      <c r="M39" s="74">
+        <v>0.10776744162087742</v>
+      </c>
+      <c r="N39" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>306</v>
+      </c>
+      <c r="B40" t="s">
+        <v>321</v>
+      </c>
+      <c r="D40" s="74">
+        <v>0</v>
+      </c>
+      <c r="E40" s="74">
+        <v>0</v>
+      </c>
+      <c r="F40" s="74">
+        <v>0</v>
+      </c>
+      <c r="G40" s="74">
+        <v>0</v>
+      </c>
+      <c r="H40" s="74">
+        <v>0</v>
+      </c>
+      <c r="I40" s="74">
+        <v>0</v>
+      </c>
+      <c r="J40" s="74">
+        <v>4.3846742720112478E-2</v>
+      </c>
+      <c r="K40" s="74">
+        <v>0.17429215693629935</v>
+      </c>
+      <c r="L40" s="74">
+        <v>0.50305867119041558</v>
+      </c>
+      <c r="M40" s="74">
+        <v>0.27880242915317255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>307</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="74">
+        <f>+D39*7*(1-0.2*D40)</f>
+        <v>5.441929587418762E-5</v>
+      </c>
+      <c r="E41" s="74">
+        <f t="shared" ref="E41:M41" si="2">+E39*7*(1-0.2*E40)</f>
+        <v>5.5129767545520428E-5</v>
+      </c>
+      <c r="F41" s="74">
+        <f t="shared" si="2"/>
+        <v>5.5315584898487209E-5</v>
+      </c>
+      <c r="G41" s="74">
+        <f t="shared" si="2"/>
+        <v>9.54378540238909E-5</v>
+      </c>
+      <c r="H41" s="74">
+        <f t="shared" si="2"/>
+        <v>3.6834045077266202E-4</v>
+      </c>
+      <c r="I41" s="74">
+        <f t="shared" si="2"/>
+        <v>1.5565406537280954E-3</v>
+      </c>
+      <c r="J41" s="74">
+        <f t="shared" si="2"/>
+        <v>3.7445368253548536E-3</v>
+      </c>
+      <c r="K41" s="74">
+        <f t="shared" si="2"/>
+        <v>1.6390671299829167E-2</v>
+      </c>
+      <c r="L41" s="74">
+        <f t="shared" si="2"/>
+        <v>9.9204003028646653E-2</v>
+      </c>
+      <c r="M41" s="74">
+        <f t="shared" si="2"/>
+        <v>0.71230793703560935</v>
+      </c>
+      <c r="N41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>270</v>
+      </c>
+      <c r="B42" t="s">
+        <v>322</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="74">
+        <f>+D41*0.9</f>
+        <v>4.8977366286768856E-5</v>
+      </c>
+      <c r="E42" s="74">
+        <f t="shared" ref="E42:M42" si="3">+E41*0.9</f>
+        <v>4.9616790790968387E-5</v>
+      </c>
+      <c r="F42" s="74">
+        <f t="shared" si="3"/>
+        <v>4.978402640863849E-5</v>
+      </c>
+      <c r="G42" s="74">
+        <f t="shared" si="3"/>
+        <v>8.5894068621501806E-5</v>
+      </c>
+      <c r="H42" s="74">
+        <f t="shared" si="3"/>
+        <v>3.3150640569539581E-4</v>
+      </c>
+      <c r="I42" s="74">
+        <f t="shared" si="3"/>
+        <v>1.400886588355286E-3</v>
+      </c>
+      <c r="J42" s="74">
+        <f t="shared" si="3"/>
+        <v>3.3700831428193682E-3</v>
+      </c>
+      <c r="K42" s="74">
+        <f t="shared" si="3"/>
+        <v>1.4751604169846251E-2</v>
+      </c>
+      <c r="L42" s="74">
+        <f t="shared" si="3"/>
+        <v>8.9283602725781994E-2</v>
+      </c>
+      <c r="M42" s="74">
+        <f t="shared" si="3"/>
+        <v>0.64107714333204846</v>
+      </c>
+      <c r="N42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>310</v>
+      </c>
+      <c r="B43" t="s">
+        <v>323</v>
+      </c>
+      <c r="D43" s="74">
+        <f>+D39*7*(1-0.2*0)</f>
+        <v>5.441929587418762E-5</v>
+      </c>
+      <c r="E43" s="74">
+        <f t="shared" ref="E43:M43" si="4">+E39*7*(1-0.2*0)</f>
+        <v>5.5129767545520428E-5</v>
+      </c>
+      <c r="F43" s="74">
+        <f t="shared" si="4"/>
+        <v>5.5315584898487209E-5</v>
+      </c>
+      <c r="G43" s="74">
+        <f t="shared" si="4"/>
+        <v>9.54378540238909E-5</v>
+      </c>
+      <c r="H43" s="74">
+        <f t="shared" si="4"/>
+        <v>3.6834045077266202E-4</v>
+      </c>
+      <c r="I43" s="74">
+        <f t="shared" si="4"/>
+        <v>1.5565406537280954E-3</v>
+      </c>
+      <c r="J43" s="74">
+        <f t="shared" si="4"/>
+        <v>3.7776644818788229E-3</v>
+      </c>
+      <c r="K43" s="74">
+        <f t="shared" si="4"/>
+        <v>1.6982660195010074E-2</v>
+      </c>
+      <c r="L43" s="74">
+        <f t="shared" si="4"/>
+        <v>0.11030164257769805</v>
+      </c>
+      <c r="M43" s="74">
+        <f t="shared" si="4"/>
+        <v>0.75437209134614203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" s="15">
+        <v>30</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="E48" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="G48" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="H48" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="I48" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J48" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="K48" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="L48" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="M48" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="N48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" s="47">
+        <v>0.99491232125079243</v>
+      </c>
+      <c r="E49" s="48">
+        <v>0.99597578374584017</v>
+      </c>
+      <c r="F49" s="48">
+        <v>0.99371771108019225</v>
+      </c>
+      <c r="G49" s="48">
+        <v>0.99256483969014719</v>
+      </c>
+      <c r="H49" s="49">
+        <v>0.99056317335218358</v>
+      </c>
+      <c r="I49" s="49">
+        <v>0.98701151554590061</v>
+      </c>
+      <c r="J49" s="48">
+        <v>0.97782355237779039</v>
+      </c>
+      <c r="K49" s="48">
+        <v>0.96374430512058562</v>
+      </c>
+      <c r="L49" s="48">
+        <v>0.93898753168256344</v>
+      </c>
+      <c r="M49" s="50">
+        <v>0.90885269783268963</v>
+      </c>
+      <c r="N49" t="s">
+        <v>264</v>
+      </c>
+      <c r="P49">
+        <f>0.1/0.56</f>
+        <v>0.17857142857142858</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" s="51">
+        <v>4.5789108742868003E-3</v>
+      </c>
+      <c r="E50" s="52">
+        <v>3.6217946287437647E-3</v>
+      </c>
+      <c r="F50" s="52">
+        <v>5.6540600278269983E-3</v>
+      </c>
+      <c r="G50" s="52">
+        <v>6.6916442788674769E-3</v>
+      </c>
+      <c r="H50" s="53">
+        <v>8.4931439830348357E-3</v>
+      </c>
+      <c r="I50" s="53">
+        <v>1.1689636008689466E-2</v>
+      </c>
+      <c r="J50" s="52">
+        <v>1.9958802859988672E-2</v>
+      </c>
+      <c r="K50" s="52">
+        <v>3.2630125391472975E-2</v>
+      </c>
+      <c r="L50" s="52">
+        <v>5.4911221485692795E-2</v>
+      </c>
+      <c r="M50" s="54">
+        <v>8.2032571950579239E-2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" s="55">
+        <v>5.0876787492075523E-4</v>
+      </c>
+      <c r="E51" s="56">
+        <v>4.0242162541597392E-4</v>
+      </c>
+      <c r="F51" s="56">
+        <v>6.2822889198077786E-4</v>
+      </c>
+      <c r="G51" s="56">
+        <v>7.4351603098527462E-4</v>
+      </c>
+      <c r="H51" s="57">
+        <v>9.4368266478164753E-4</v>
+      </c>
+      <c r="I51" s="57">
+        <v>1.2988484454099409E-3</v>
+      </c>
+      <c r="J51" s="56">
+        <v>2.2176447622209625E-3</v>
+      </c>
+      <c r="K51" s="56">
+        <v>3.625569487941442E-3</v>
+      </c>
+      <c r="L51" s="56">
+        <v>6.1012468317436395E-3</v>
+      </c>
+      <c r="M51" s="58">
+        <v>9.1147302167310235E-3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="14">
+        <v>1</v>
+      </c>
+      <c r="E53" s="14">
+        <v>1</v>
+      </c>
+      <c r="F53" s="14">
+        <v>1</v>
+      </c>
+      <c r="G53" s="14">
+        <v>1</v>
+      </c>
+      <c r="H53" s="43">
+        <v>1</v>
+      </c>
+      <c r="I53" s="43">
+        <v>1</v>
+      </c>
+      <c r="J53" s="14">
+        <v>1</v>
+      </c>
+      <c r="K53" s="14">
+        <v>1</v>
+      </c>
+      <c r="L53" s="14">
+        <v>1</v>
+      </c>
+      <c r="M53" s="14">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="14">
+        <v>4</v>
+      </c>
+      <c r="E54" s="14">
+        <v>4</v>
+      </c>
+      <c r="F54" s="14">
+        <v>4</v>
+      </c>
+      <c r="G54" s="14">
+        <v>4</v>
+      </c>
+      <c r="H54" s="43">
+        <v>4</v>
+      </c>
+      <c r="I54" s="43">
+        <v>4</v>
+      </c>
+      <c r="J54" s="14">
+        <v>4</v>
+      </c>
+      <c r="K54" s="14">
+        <v>4</v>
+      </c>
+      <c r="L54" s="14">
+        <v>4</v>
+      </c>
+      <c r="M54" s="14">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" s="15">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="E55" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="F55" s="15">
+        <v>7.8</v>
+      </c>
+      <c r="G55" s="15">
+        <v>7.8599999999999994</v>
+      </c>
+      <c r="H55" s="38">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="I55" s="38">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J55" s="15">
+        <v>10.5</v>
+      </c>
+      <c r="K55" s="15">
+        <v>10.26</v>
+      </c>
+      <c r="L55" s="15">
+        <v>9.42</v>
+      </c>
+      <c r="M55" s="15">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="N55" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q55">
+        <f>AVERAGE(D55:M55)</f>
+        <v>8.7900000000000009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="15">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="E56" s="15">
+        <v>7.5</v>
+      </c>
+      <c r="F56" s="15">
+        <v>7.8</v>
+      </c>
+      <c r="G56" s="15">
+        <v>7.8599999999999994</v>
+      </c>
+      <c r="H56" s="38">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="I56" s="38">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J56" s="15">
+        <v>10.5</v>
+      </c>
+      <c r="K56" s="15">
+        <v>10.26</v>
+      </c>
+      <c r="L56" s="15">
+        <v>9.42</v>
+      </c>
+      <c r="M56" s="15">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="N56" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q56">
+        <f>AVERAGE(D56:M56)</f>
+        <v>8.7900000000000009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H57"/>
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" s="14">
+        <f>10*365</f>
+        <v>3650</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="75" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="64">
+        <f>1.5*365</f>
+        <v>547.5</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="O59" s="75" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>233</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>40</v>
+      </c>
+      <c r="F62">
+        <v>70</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+      <c r="H62" s="37">
+        <v>130</v>
+      </c>
+      <c r="I62" s="37">
+        <v>160</v>
+      </c>
+      <c r="J62">
+        <v>190</v>
+      </c>
+      <c r="K62">
+        <v>210</v>
+      </c>
+      <c r="L62">
+        <v>240</v>
+      </c>
+      <c r="M62">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="59">
+        <v>9.0262679016149556E-3</v>
+      </c>
+      <c r="E63" s="59">
+        <v>2.2057850536201969E-2</v>
+      </c>
+      <c r="F63" s="59">
+        <v>2.6002433726858301E-2</v>
+      </c>
+      <c r="G63" s="59">
+        <v>3.3866401295262326E-2</v>
+      </c>
+      <c r="H63" s="60">
+        <v>6.3599265897090668E-2</v>
+      </c>
+      <c r="I63" s="60">
+        <v>0.1468412890180795</v>
+      </c>
+      <c r="J63" s="59">
+        <v>0.45034730389888855</v>
+      </c>
+      <c r="K63" s="59">
+        <v>0.65823088205443847</v>
+      </c>
+      <c r="L63" s="59">
+        <v>0.75833931525975273</v>
+      </c>
+      <c r="M63" s="59">
+        <v>0.74855466066564025</v>
+      </c>
+      <c r="N63" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>297</v>
+      </c>
+      <c r="D64" s="59">
+        <v>0</v>
+      </c>
+      <c r="E64" s="59">
+        <v>0</v>
+      </c>
+      <c r="F64" s="59">
+        <v>0</v>
+      </c>
+      <c r="G64" s="59">
+        <v>0</v>
+      </c>
+      <c r="H64" s="60">
+        <v>0</v>
+      </c>
+      <c r="I64" s="60">
+        <v>0</v>
+      </c>
+      <c r="J64" s="59">
+        <v>0</v>
+      </c>
+      <c r="K64" s="59">
+        <v>0</v>
+      </c>
+      <c r="L64" s="59">
+        <v>0</v>
+      </c>
+      <c r="M64" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" t="s">
+        <v>325</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="E65" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="F65" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="G65" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="H65" s="38">
+        <v>0.31</v>
+      </c>
+      <c r="I65" s="38">
+        <v>0.31</v>
+      </c>
+      <c r="J65" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="K65" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="L65" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="M65" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="N65" s="29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" t="s">
+        <v>326</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="65">
+        <v>0.81857862607524046</v>
+      </c>
+      <c r="E66" s="65">
+        <v>0.60401127663817045</v>
+      </c>
+      <c r="F66" s="65">
+        <v>0.50424314073930243</v>
+      </c>
+      <c r="G66" s="65">
+        <v>0.43852754961069579</v>
+      </c>
+      <c r="H66" s="65">
+        <v>0.3894439272011006</v>
+      </c>
+      <c r="I66" s="65">
+        <v>0.35025141162564921</v>
+      </c>
+      <c r="J66" s="65">
+        <v>0.3176244762376727</v>
+      </c>
+      <c r="K66" s="65">
+        <v>0.28967579130223259</v>
+      </c>
+      <c r="L66" s="65">
+        <v>0.26523047596408661</v>
+      </c>
+      <c r="M66" s="66">
+        <v>0.24977435437416431</v>
+      </c>
+      <c r="N66" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" t="s">
+        <v>327</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="E67" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="F67" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="G67" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="H67" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="I67" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="J67" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="K67" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="L67" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="M67" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="N67" s="29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>278</v>
+      </c>
+      <c r="B68" t="s">
+        <v>328</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B69" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" s="15">
+        <v>7</v>
+      </c>
+      <c r="N69" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B70" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="23">
+        <v>0</v>
+      </c>
+      <c r="D70" s="23">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>329</v>
+      </c>
+      <c r="C73" s="23">
+        <v>0</v>
+      </c>
+      <c r="D73" s="76">
+        <v>40</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" s="23">
+        <v>1</v>
+      </c>
+      <c r="D74" s="77">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" s="23">
+        <v>1</v>
+      </c>
+      <c r="D75" s="62">
+        <v>1.55</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>330</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" s="78">
+        <v>1150</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" s="78">
+        <v>110</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" t="s">
+        <v>331</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" s="79">
+        <f>5.9/(1000/(365.25/7))</f>
+        <v>0.30785357142857145</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" t="s">
+        <v>313</v>
+      </c>
+      <c r="O78" s="29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="B79" t="s">
+        <v>332</v>
+      </c>
+      <c r="C79" s="23">
+        <v>1</v>
+      </c>
+      <c r="D79" s="76">
+        <v>0.7</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" t="s">
+        <v>333</v>
+      </c>
+      <c r="C80" s="23">
+        <v>1</v>
+      </c>
+      <c r="D80" s="80">
+        <v>2E-3</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B81" t="s">
+        <v>334</v>
+      </c>
+      <c r="C81" s="23">
+        <v>0</v>
+      </c>
+      <c r="D81" s="62">
+        <v>180</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B82" t="s">
+        <v>335</v>
+      </c>
+      <c r="C82" s="23">
+        <v>0</v>
+      </c>
+      <c r="D82" s="62">
+        <v>0.85</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="B83" t="s">
+        <v>336</v>
+      </c>
+      <c r="C83" s="23">
+        <v>0</v>
+      </c>
+      <c r="D83" s="81">
+        <f>D75*(1-D82*AVERAGE(K66:M66))</f>
+        <v>1.1966110936628875</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="29"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D84" s="17"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" s="37">
+        <v>1</v>
+      </c>
+      <c r="I86" s="37">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87" t="s">
+        <v>337</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="32">
+        <v>500</v>
+      </c>
+      <c r="E87" s="32">
+        <v>500</v>
+      </c>
+      <c r="F87" s="32">
+        <v>500</v>
+      </c>
+      <c r="G87" s="32">
+        <v>500</v>
+      </c>
+      <c r="H87" s="32">
+        <v>500</v>
+      </c>
+      <c r="I87" s="32">
+        <v>500</v>
+      </c>
+      <c r="J87" s="32">
+        <v>500</v>
+      </c>
+      <c r="K87" s="32">
+        <v>500</v>
+      </c>
+      <c r="L87" s="32">
+        <v>500</v>
+      </c>
+      <c r="M87" s="32">
+        <v>500</v>
+      </c>
+      <c r="N87" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="O87" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" t="s">
+        <v>338</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="32">
+        <v>2500</v>
+      </c>
+      <c r="E88" s="32">
+        <v>2500</v>
+      </c>
+      <c r="F88" s="32">
+        <v>2500</v>
+      </c>
+      <c r="G88" s="32">
+        <v>2500</v>
+      </c>
+      <c r="H88" s="32">
+        <v>2500</v>
+      </c>
+      <c r="I88" s="32">
+        <v>2500</v>
+      </c>
+      <c r="J88" s="32">
+        <v>2500</v>
+      </c>
+      <c r="K88" s="32">
+        <v>2500</v>
+      </c>
+      <c r="L88" s="32">
+        <v>2500</v>
+      </c>
+      <c r="M88" s="32">
+        <v>2500</v>
+      </c>
+      <c r="N88" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="O88" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" t="s">
+        <v>339</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" s="32">
+        <v>0</v>
+      </c>
+      <c r="E89" s="32">
+        <v>73.974773323414368</v>
+      </c>
+      <c r="F89" s="32">
+        <v>245.0234081412851</v>
+      </c>
+      <c r="G89" s="32">
+        <v>259.1022892575449</v>
+      </c>
+      <c r="H89" s="44">
+        <v>295.75666737614551</v>
+      </c>
+      <c r="I89" s="44">
+        <v>262.77965383901034</v>
+      </c>
+      <c r="J89" s="32">
+        <v>131.61165222261778</v>
+      </c>
+      <c r="K89" s="32">
+        <v>17.204083299011018</v>
+      </c>
+      <c r="L89" s="32">
+        <v>0</v>
+      </c>
+      <c r="M89" s="32">
+        <v>0</v>
+      </c>
+      <c r="N89" s="70" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" t="s">
+        <v>340</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" s="32">
+        <v>0</v>
+      </c>
+      <c r="E90" s="32">
+        <v>73.974773323414368</v>
+      </c>
+      <c r="F90" s="32">
+        <v>245.0234081412851</v>
+      </c>
+      <c r="G90" s="32">
+        <v>259.1022892575449</v>
+      </c>
+      <c r="H90" s="44">
+        <v>295.75666737614551</v>
+      </c>
+      <c r="I90" s="44">
+        <v>262.77965383901034</v>
+      </c>
+      <c r="J90" s="32">
+        <v>131.61165222261778</v>
+      </c>
+      <c r="K90" s="32">
+        <v>17.204083299011018</v>
+      </c>
+      <c r="L90" s="32">
+        <v>0</v>
+      </c>
+      <c r="M90" s="32">
+        <v>0</v>
+      </c>
+      <c r="N90" s="70"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" t="s">
+        <v>341</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" s="32">
+        <v>0</v>
+      </c>
+      <c r="E91" s="32">
+        <v>73.974773323414368</v>
+      </c>
+      <c r="F91" s="32">
+        <v>245.0234081412851</v>
+      </c>
+      <c r="G91" s="32">
+        <v>259.1022892575449</v>
+      </c>
+      <c r="H91" s="44">
+        <v>295.75666737614551</v>
+      </c>
+      <c r="I91" s="44">
+        <v>262.77965383901034</v>
+      </c>
+      <c r="J91" s="32">
+        <v>131.61165222261778</v>
+      </c>
+      <c r="K91" s="32">
+        <v>17.204083299011018</v>
+      </c>
+      <c r="L91" s="32">
+        <v>0</v>
+      </c>
+      <c r="M91" s="32">
+        <v>0</v>
+      </c>
+      <c r="N91" s="70"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>229</v>
+      </c>
+      <c r="B92" t="s">
+        <v>342</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="32">
+        <f>85*D89</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="32">
+        <f t="shared" ref="E92:M92" si="5">85*E89</f>
+        <v>6287.8557324902213</v>
+      </c>
+      <c r="F92" s="32">
+        <f t="shared" si="5"/>
+        <v>20826.989692009232</v>
+      </c>
+      <c r="G92" s="32">
+        <f t="shared" si="5"/>
+        <v>22023.694586891317</v>
+      </c>
+      <c r="H92" s="32">
+        <f t="shared" si="5"/>
+        <v>25139.316726972367</v>
+      </c>
+      <c r="I92" s="32">
+        <f t="shared" si="5"/>
+        <v>22336.270576315877</v>
+      </c>
+      <c r="J92" s="32">
+        <f t="shared" si="5"/>
+        <v>11186.99043892251</v>
+      </c>
+      <c r="K92" s="32">
+        <f t="shared" si="5"/>
+        <v>1462.3470804159365</v>
+      </c>
+      <c r="L92" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="O92" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s">
+        <v>343</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" s="33">
+        <v>0.99606627414700155</v>
+      </c>
+      <c r="E93" s="33">
+        <v>0.9776719595406318</v>
+      </c>
+      <c r="F93" s="33">
+        <v>0.96215145396579216</v>
+      </c>
+      <c r="G93" s="33">
+        <v>0.94793030270711187</v>
+      </c>
+      <c r="H93" s="45">
+        <v>0.93126381849083051</v>
+      </c>
+      <c r="I93" s="45">
+        <v>0.90927542807983519</v>
+      </c>
+      <c r="J93" s="33">
+        <v>0.87879767665745989</v>
+      </c>
+      <c r="K93" s="33">
+        <v>0.83618203004552705</v>
+      </c>
+      <c r="L93" s="33">
+        <v>0.78018759924575853</v>
+      </c>
+      <c r="M93" s="33">
+        <v>0.71017831608378845</v>
+      </c>
+      <c r="N93" s="29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94" t="s">
+        <v>344</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" s="82">
+        <v>0.56577958966108621</v>
+      </c>
+      <c r="E94" s="82">
+        <v>0.54544311847981053</v>
+      </c>
+      <c r="F94" s="82">
+        <v>0.52998577615353082</v>
+      </c>
+      <c r="G94" s="82">
+        <v>0.5158225002074448</v>
+      </c>
+      <c r="H94" s="83">
+        <v>0.49922384298817096</v>
+      </c>
+      <c r="I94" s="83">
+        <v>0.47732493794621011</v>
+      </c>
+      <c r="J94" s="82">
+        <v>0.44697122074291129</v>
+      </c>
+      <c r="K94" s="82">
+        <v>0.40452900550964854</v>
+      </c>
+      <c r="L94" s="82">
+        <v>0.34876245324988897</v>
+      </c>
+      <c r="M94" s="82">
+        <v>0.27903808437325295</v>
+      </c>
+      <c r="N94" s="29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" t="s">
+        <v>345</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" s="82">
+        <v>0.46618655609820131</v>
+      </c>
+      <c r="E95" s="82">
+        <v>0.44585008491692557</v>
+      </c>
+      <c r="F95" s="82">
+        <v>0.43039274259064603</v>
+      </c>
+      <c r="G95" s="82">
+        <v>0.41622946664455995</v>
+      </c>
+      <c r="H95" s="83">
+        <v>0.39963080942528606</v>
+      </c>
+      <c r="I95" s="83">
+        <v>0.37773190438332527</v>
+      </c>
+      <c r="J95" s="82">
+        <v>0.34737818718002644</v>
+      </c>
+      <c r="K95" s="82">
+        <v>0.30493597194676375</v>
+      </c>
+      <c r="L95" s="82">
+        <v>0.24916941968700412</v>
+      </c>
+      <c r="M95" s="82">
+        <v>0.17944505081036816</v>
+      </c>
+      <c r="N95" s="29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>195</v>
+      </c>
+      <c r="B96" t="s">
+        <v>346</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" s="82">
+        <v>0.36659352253531657</v>
+      </c>
+      <c r="E96" s="82">
+        <v>0.34625705135404072</v>
+      </c>
+      <c r="F96" s="82">
+        <v>0.33079970902776124</v>
+      </c>
+      <c r="G96" s="82">
+        <v>0.31663643308167522</v>
+      </c>
+      <c r="H96" s="83">
+        <v>0.30003777586240127</v>
+      </c>
+      <c r="I96" s="83">
+        <v>0.27813887082044048</v>
+      </c>
+      <c r="J96" s="82">
+        <v>0.24778515361714165</v>
+      </c>
+      <c r="K96" s="82">
+        <v>0.20534293838387899</v>
+      </c>
+      <c r="L96" s="82">
+        <v>0.1495763861241193</v>
+      </c>
+      <c r="M96" s="82">
+        <v>7.9852017247483364E-2</v>
+      </c>
+      <c r="N96" s="29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" s="67">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N97" s="29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" s="67">
+        <v>0.03</v>
+      </c>
+      <c r="N98" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>212</v>
+      </c>
+      <c r="B99" t="s">
+        <v>347</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" s="68">
+        <f>17+14</f>
+        <v>31</v>
+      </c>
+      <c r="N99" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="O99" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="B100" t="s">
+        <v>243</v>
+      </c>
+      <c r="C100" s="23">
+        <v>0</v>
+      </c>
+      <c r="D100" s="25">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>80</v>
+      </c>
+      <c r="B103" t="s">
+        <v>92</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>635130.47000181698</v>
+      </c>
+      <c r="E103">
+        <v>559365.05056542903</v>
+      </c>
+      <c r="F103">
+        <v>889398.05864136002</v>
+      </c>
+      <c r="G103">
+        <v>775008.29418637895</v>
+      </c>
+      <c r="H103">
+        <v>756256.11758421198</v>
+      </c>
+      <c r="I103">
+        <v>1007950.69995983</v>
+      </c>
+      <c r="J103">
+        <v>645355.70630095201</v>
+      </c>
+      <c r="K103">
+        <v>551493.81964356196</v>
+      </c>
+      <c r="L103">
+        <v>245179.78246071999</v>
+      </c>
+      <c r="M103">
+        <v>145033.01808961001</v>
+      </c>
+      <c r="N103" s="18">
+        <f>SUM(C103:M103)</f>
+        <v>6210171.0174338715</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104" t="s">
+        <v>93</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>13779.5460701108</v>
+      </c>
+      <c r="E104">
+        <v>7821.1920290138696</v>
+      </c>
+      <c r="F104">
+        <v>6229.4887327713404</v>
+      </c>
+      <c r="G104">
+        <v>7432.10625022971</v>
+      </c>
+      <c r="H104">
+        <v>7575.7383515039601</v>
+      </c>
+      <c r="I104">
+        <v>4796.1043531694304</v>
+      </c>
+      <c r="J104">
+        <v>3309.88633404641</v>
+      </c>
+      <c r="K104">
+        <v>1078.5619254982701</v>
+      </c>
+      <c r="L104">
+        <v>205.73349669113799</v>
+      </c>
+      <c r="M104">
+        <v>22.430277315520801</v>
+      </c>
+      <c r="N104" s="18">
+        <f t="shared" ref="N104:N116" si="6">SUM(C104:M104)</f>
+        <v>52250.787820350444</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>180.751823740802</v>
+      </c>
+      <c r="E105">
+        <v>128.30902564415999</v>
+      </c>
+      <c r="F105">
+        <v>143.086404844405</v>
+      </c>
+      <c r="G105">
+        <v>170.68107813535701</v>
+      </c>
+      <c r="H105">
+        <v>149.10806930100901</v>
+      </c>
+      <c r="I105">
+        <v>78.654143531107906</v>
+      </c>
+      <c r="J105">
+        <v>43.359609519179998</v>
+      </c>
+      <c r="K105">
+        <v>10.583984845496801</v>
+      </c>
+      <c r="L105">
+        <v>1.3444850198325899</v>
+      </c>
+      <c r="M105">
+        <v>7.3305948325511794E-2</v>
+      </c>
+      <c r="N105" s="18">
+        <f t="shared" si="6"/>
+        <v>905.95193052967591</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>82</v>
+      </c>
+      <c r="B106" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>1029.3287213804099</v>
+      </c>
+      <c r="E106">
+        <v>488.41250230338801</v>
+      </c>
+      <c r="F106">
+        <v>232.96544836355599</v>
+      </c>
+      <c r="G106">
+        <v>277.42766703692598</v>
+      </c>
+      <c r="H106">
+        <v>376.12112616204303</v>
+      </c>
+      <c r="I106">
+        <v>296.44092204415398</v>
+      </c>
+      <c r="J106">
+        <v>241.80769942662999</v>
+      </c>
+      <c r="K106">
+        <v>90.185700650566005</v>
+      </c>
+      <c r="L106">
+        <v>19.081065201487601</v>
+      </c>
+      <c r="M106">
+        <v>2.2686686619138201</v>
+      </c>
+      <c r="N106" s="18">
+        <f t="shared" si="6"/>
+        <v>3054.0395212310741</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" t="s">
+        <v>96</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>8.1355648502134201</v>
+      </c>
+      <c r="E107">
+        <v>3.1696285279473901</v>
+      </c>
+      <c r="F107">
+        <v>2.4513955814817598</v>
+      </c>
+      <c r="G107">
+        <v>3.4804264714028501</v>
+      </c>
+      <c r="H107">
+        <v>6.1209580123262404</v>
+      </c>
+      <c r="I107">
+        <v>8.2150752560943303</v>
+      </c>
+      <c r="J107">
+        <v>11.745092742832201</v>
+      </c>
+      <c r="K107">
+        <v>7.0810499854101101</v>
+      </c>
+      <c r="L107">
+        <v>2.3977273080169201</v>
+      </c>
+      <c r="M107">
+        <v>0.43036219411842003</v>
+      </c>
+      <c r="N107" s="18">
+        <f t="shared" si="6"/>
+        <v>53.227280929843644</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="s">
+        <v>97</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0.90395165002371203</v>
+      </c>
+      <c r="E108">
+        <v>0.35218094754971002</v>
+      </c>
+      <c r="F108">
+        <v>0.27237728683130702</v>
+      </c>
+      <c r="G108">
+        <v>0.38671405237809398</v>
+      </c>
+      <c r="H108">
+        <v>0.68010644581402602</v>
+      </c>
+      <c r="I108">
+        <v>0.91278613956603705</v>
+      </c>
+      <c r="J108">
+        <v>1.3050103047591299</v>
+      </c>
+      <c r="K108">
+        <v>0.78678333171223502</v>
+      </c>
+      <c r="L108">
+        <v>0.26641414533521302</v>
+      </c>
+      <c r="M108">
+        <v>4.7818021568713301E-2</v>
+      </c>
+      <c r="N108" s="18">
+        <f t="shared" si="6"/>
+        <v>5.9141423255381778</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>84</v>
+      </c>
+      <c r="B109" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>1120776.85397512</v>
+      </c>
+      <c r="E109">
+        <v>1300554.0756361301</v>
+      </c>
+      <c r="F109">
+        <v>1063714.4824291901</v>
+      </c>
+      <c r="G109">
+        <v>1256926.5817253401</v>
+      </c>
+      <c r="H109">
+        <v>1289333.89550665</v>
+      </c>
+      <c r="I109">
+        <v>857122.59313577996</v>
+      </c>
+      <c r="J109">
+        <v>651708.00601782999</v>
+      </c>
+      <c r="K109">
+        <v>236799.13538053501</v>
+      </c>
+      <c r="L109">
+        <v>47292.9164293625</v>
+      </c>
+      <c r="M109">
+        <v>1523.2713903496301</v>
+      </c>
+      <c r="N109" s="18">
+        <f t="shared" si="6"/>
+        <v>7825751.8116262872</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>85</v>
+      </c>
+      <c r="B110" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>5107.6981027657403</v>
+      </c>
+      <c r="E110">
+        <v>13202.8515069239</v>
+      </c>
+      <c r="F110">
+        <v>28270.074267431199</v>
+      </c>
+      <c r="G110">
+        <v>32043.735569318698</v>
+      </c>
+      <c r="H110">
+        <v>61724.3179421198</v>
+      </c>
+      <c r="I110">
+        <v>228204.34094045201</v>
+      </c>
+      <c r="J110">
+        <v>536166.86466756405</v>
+      </c>
+      <c r="K110">
+        <v>858062.80376006197</v>
+      </c>
+      <c r="L110">
+        <v>568240.27753921098</v>
+      </c>
+      <c r="M110">
+        <v>406315.16582049098</v>
+      </c>
+      <c r="N110" s="18">
+        <f t="shared" si="6"/>
+        <v>2737338.1301163393</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>86</v>
+      </c>
+      <c r="B111" t="s">
+        <v>101</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>21.203444569728699</v>
+      </c>
+      <c r="E111">
+        <v>76.807322868296296</v>
+      </c>
+      <c r="F111">
+        <v>102.859555199339</v>
+      </c>
+      <c r="G111">
+        <v>181.17752783703401</v>
+      </c>
+      <c r="H111">
+        <v>397.29269783746503</v>
+      </c>
+      <c r="I111">
+        <v>744.08461764635899</v>
+      </c>
+      <c r="J111">
+        <v>2031.09929286025</v>
+      </c>
+      <c r="K111">
+        <v>1321.8672278361801</v>
+      </c>
+      <c r="L111">
+        <v>396.32711699757903</v>
+      </c>
+      <c r="M111">
+        <v>52.666743724893401</v>
+      </c>
+      <c r="N111" s="18">
+        <f t="shared" si="6"/>
+        <v>5325.3855473771237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>87</v>
+      </c>
+      <c r="B112" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0.27884769089899902</v>
+      </c>
+      <c r="E112">
+        <v>1.26301868818094</v>
+      </c>
+      <c r="F112">
+        <v>2.3678586980758398</v>
+      </c>
+      <c r="G112">
+        <v>4.1705138611018997</v>
+      </c>
+      <c r="H112">
+        <v>7.8387069656640396</v>
+      </c>
+      <c r="I112">
+        <v>12.2337154412067</v>
+      </c>
+      <c r="J112">
+        <v>26.709942516392001</v>
+      </c>
+      <c r="K112">
+        <v>13.0375704504604</v>
+      </c>
+      <c r="L112">
+        <v>2.6058771339968998</v>
+      </c>
+      <c r="M112">
+        <v>0.17306017521665101</v>
+      </c>
+      <c r="N112" s="18">
+        <f t="shared" si="6"/>
+        <v>70.679111621194366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>88</v>
+      </c>
+      <c r="B113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>1.1397639621790501</v>
+      </c>
+      <c r="E113">
+        <v>3.4439126964494</v>
+      </c>
+      <c r="F113">
+        <v>2.7621975369699099</v>
+      </c>
+      <c r="G113">
+        <v>4.8602701358182303</v>
+      </c>
+      <c r="H113">
+        <v>14.188617241147901</v>
+      </c>
+      <c r="I113">
+        <v>33.126309946778001</v>
+      </c>
+      <c r="J113">
+        <v>107.70325129837499</v>
+      </c>
+      <c r="K113">
+        <v>80.912614797638199</v>
+      </c>
+      <c r="L113">
+        <v>27.189482905001501</v>
+      </c>
+      <c r="M113">
+        <v>3.9651123021805099</v>
+      </c>
+      <c r="N113" s="18">
+        <f t="shared" si="6"/>
+        <v>279.2915328225377</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>89</v>
+      </c>
+      <c r="B114" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>6.77566372922283E-3</v>
+      </c>
+      <c r="E114">
+        <v>1.68356404181359E-2</v>
+      </c>
+      <c r="F114">
+        <v>2.19025406772036E-2</v>
+      </c>
+      <c r="G114">
+        <v>4.5968654409103998E-2</v>
+      </c>
+      <c r="H114">
+        <v>0.17420869363421199</v>
+      </c>
+      <c r="I114">
+        <v>0.69937777485549701</v>
+      </c>
+      <c r="J114">
+        <v>4.0106762513961698</v>
+      </c>
+      <c r="K114">
+        <v>4.8748530645248396</v>
+      </c>
+      <c r="L114">
+        <v>2.5978012801388601</v>
+      </c>
+      <c r="M114">
+        <v>0.561177776084681</v>
+      </c>
+      <c r="N114" s="18">
+        <f t="shared" si="6"/>
+        <v>13.009577339867926</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>105</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>7.52851525469203E-4</v>
+      </c>
+      <c r="E115">
+        <v>1.87062671312621E-3</v>
+      </c>
+      <c r="F115">
+        <v>2.4336156308003998E-3</v>
+      </c>
+      <c r="G115">
+        <v>5.1076282676782202E-3</v>
+      </c>
+      <c r="H115">
+        <v>1.9356521514912399E-2</v>
+      </c>
+      <c r="I115">
+        <v>7.7708641650610796E-2</v>
+      </c>
+      <c r="J115">
+        <v>0.445630694599574</v>
+      </c>
+      <c r="K115">
+        <v>0.54165034050275995</v>
+      </c>
+      <c r="L115">
+        <v>0.28864458668209603</v>
+      </c>
+      <c r="M115">
+        <v>6.2353086231631202E-2</v>
+      </c>
+      <c r="N115" s="18">
+        <f t="shared" si="6"/>
+        <v>1.4455085933186582</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>90</v>
+      </c>
+      <c r="B116" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>2841.3466783274598</v>
+      </c>
+      <c r="E116">
+        <v>17551.066942200399</v>
+      </c>
+      <c r="F116">
+        <v>20380.196539326102</v>
+      </c>
+      <c r="G116">
+        <v>31658.044447388402</v>
+      </c>
+      <c r="H116">
+        <v>62931.534953226001</v>
+      </c>
+      <c r="I116">
+        <v>111639.08878035699</v>
+      </c>
+      <c r="J116">
+        <v>294475.18391590298</v>
+      </c>
+      <c r="K116">
+        <v>186244.659325974</v>
+      </c>
+      <c r="L116">
+        <v>51841.113865026098</v>
+      </c>
+      <c r="M116">
+        <v>3503.0734026500299</v>
+      </c>
+      <c r="N116" s="18">
+        <f t="shared" si="6"/>
+        <v>783065.30885037838</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>91</v>
+      </c>
+      <c r="B118" t="s">
+        <v>99</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" s="37">
+        <v>0</v>
+      </c>
+      <c r="I118" s="37">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H123"/>
+      <c r="I123"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H124"/>
+      <c r="I124"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H125"/>
+      <c r="I125"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H126"/>
+      <c r="I126"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H127"/>
+      <c r="I127"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H128"/>
+      <c r="I128"/>
+    </row>
+    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H129"/>
+      <c r="I129"/>
+    </row>
+    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H130"/>
+      <c r="I130"/>
+    </row>
+    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H131"/>
+      <c r="I131"/>
+    </row>
+    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H132"/>
+      <c r="I132"/>
+    </row>
+    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H133"/>
+      <c r="I133"/>
+    </row>
+    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H134"/>
+      <c r="I134"/>
+    </row>
+    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H135"/>
+      <c r="I135"/>
+    </row>
+    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H136"/>
+      <c r="I136"/>
+    </row>
+    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H137"/>
+      <c r="I137"/>
+    </row>
+    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H138"/>
+      <c r="I138"/>
+    </row>
+    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H141"/>
+      <c r="I141"/>
+    </row>
+    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H142"/>
+      <c r="I142"/>
+    </row>
+    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H143"/>
+      <c r="I143"/>
+    </row>
+    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H144"/>
+      <c r="I144"/>
+    </row>
+    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H145"/>
+      <c r="I145"/>
+    </row>
+    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H146"/>
+      <c r="I146"/>
+    </row>
+    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H147"/>
+      <c r="I147"/>
+    </row>
+    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H148"/>
+      <c r="I148"/>
+    </row>
+    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H149"/>
+      <c r="I149"/>
+    </row>
+    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H150"/>
+      <c r="I150"/>
+    </row>
+    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H151"/>
+      <c r="I151"/>
+    </row>
+    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H152"/>
+      <c r="I152"/>
+    </row>
+    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H153"/>
+      <c r="I153"/>
+    </row>
+    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H154"/>
+      <c r="I154"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N89:N91"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D8:M17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="N4" r:id="rId1" location="google_vignette" xr:uid="{78E758D3-17CC-4151-8A33-DD3143FC97BA}"/>
+    <hyperlink ref="N5" r:id="rId2" location="google_vignette" xr:uid="{FA181A3D-D164-4229-A5B9-FB84BAB301CC}"/>
+    <hyperlink ref="N19" r:id="rId3" location="/CBS/nl/dataset/83474NED/table?ts=1685623868514" xr:uid="{4EB3AFDF-0229-40BD-96AE-8613F7BE3149}"/>
+    <hyperlink ref="N20" r:id="rId4" xr:uid="{581A6AAD-622B-4189-9C0C-870415FBD386}"/>
+    <hyperlink ref="N22" r:id="rId5" location="/CBS/nl/dataset/83474NED/table?ts=1685623868514" xr:uid="{7733DB72-4E07-440E-B2C8-CDC869E0CD15}"/>
+    <hyperlink ref="N46" r:id="rId6" display="https://www.cdc.gov/flu/about/keyfacts.htm" xr:uid="{0BC13C8F-59A7-4848-9614-F3CFA13ADB35}"/>
+    <hyperlink ref="N93" r:id="rId7" xr:uid="{F0210711-12EF-43C0-8E07-260E52FF191C}"/>
+    <hyperlink ref="N65" r:id="rId8" xr:uid="{21B68FF3-073C-454C-AC0B-849C114630CE}"/>
+    <hyperlink ref="N67" r:id="rId9" xr:uid="{E754E8F3-458D-4217-A00E-6E35AC6CBA40}"/>
+    <hyperlink ref="N87" r:id="rId10" xr:uid="{DE26416D-CA23-4305-A649-7FBE986F8CB0}"/>
+    <hyperlink ref="N88" r:id="rId11" xr:uid="{785CCDE0-FBEC-4922-8E9E-8884B84F2DDA}"/>
+    <hyperlink ref="N92" r:id="rId12" xr:uid="{3F3DB2A8-6F73-4D2B-8393-7D835258BCC4}"/>
+    <hyperlink ref="N82" r:id="rId13" xr:uid="{190863A8-0171-4632-9B60-3000664A83E9}"/>
+    <hyperlink ref="N74" r:id="rId14" xr:uid="{572F0D1C-F99F-45B8-AECE-539314D4E76F}"/>
+    <hyperlink ref="N94" r:id="rId15" xr:uid="{6971B2BE-B27F-473F-8D42-149C976655F9}"/>
+    <hyperlink ref="N95:N96" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3610925/" xr:uid="{038813A9-1356-460F-AB6D-EFEC3446041E}"/>
+    <hyperlink ref="N99" r:id="rId17" xr:uid="{B01654FF-0358-442C-BEF8-63F1950F89BE}"/>
+    <hyperlink ref="O59" r:id="rId18" location=":~:text=The%20protection%20provided%20by%20the,a%20combination%20of%20the%20two." xr:uid="{240CF095-BA3E-4C4C-B434-E1A8952D6B1F}"/>
+    <hyperlink ref="N58" r:id="rId19" xr:uid="{ED02A131-FEC0-4F6E-896E-291E09294BF7}"/>
+    <hyperlink ref="N59" r:id="rId20" xr:uid="{A95D67A1-24A7-4E00-83D3-E3523F3F9382}"/>
+    <hyperlink ref="O78" r:id="rId21" xr:uid="{AF42ADD8-3385-4F0C-AFCB-CBFEE02C21D3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <legacyDrawing r:id="rId23"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53000DF-8E15-439A-B399-3ECA6DD1BBDB}">
   <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D99" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D78" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="J55" sqref="J55:M55"/>
       <selection pane="topRight" activeCell="J55" sqref="J55:M55"/>
       <selection pane="bottomLeft" activeCell="J55" sqref="J55:M55"/>
@@ -4605,7 +9452,7 @@
         <v>112</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -4700,7 +9547,7 @@
         <v>7.8629101605002891E-3</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -4726,7 +9573,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="29" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -4770,7 +9617,7 @@
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -4856,7 +9703,7 @@
         <v>7.7186210489618209E-3</v>
       </c>
       <c r="N8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -4900,7 +9747,7 @@
         <v>2.7675569376990568E-2</v>
       </c>
       <c r="N9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -5254,7 +10101,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="29" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -5298,7 +10145,7 @@
         <v>179</v>
       </c>
       <c r="N20" s="29" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -5342,7 +10189,7 @@
         <v>5.2123767822472421E-3</v>
       </c>
       <c r="N21" s="29" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -5362,27 +10209,27 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="N24" t="s">
         <v>250</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" s="23">
-        <v>0</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="N24" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C25" s="23">
         <v>0</v>
@@ -5391,7 +10238,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -5418,7 +10265,7 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -5445,7 +10292,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -5471,7 +10318,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -5497,7 +10344,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -5523,7 +10370,7 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -5549,7 +10396,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -5557,7 +10404,7 @@
         <v>202</v>
       </c>
       <c r="B32" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -5575,7 +10422,7 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
@@ -5593,10 +10440,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D36">
         <v>8.0975000000000003E-4</v>
@@ -5629,7 +10476,7 @@
         <v>9.6113249999999997E-2</v>
       </c>
       <c r="N36" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
@@ -5655,7 +10502,7 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -5681,7 +10528,7 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="29" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5689,7 +10536,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -5725,7 +10572,7 @@
         <v>0.9</v>
       </c>
       <c r="N40" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -5769,7 +10616,7 @@
         <v>0.90885269783268963</v>
       </c>
       <c r="N41" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P41">
         <f>0.1/0.56</f>
@@ -5781,7 +10628,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5817,7 +10664,7 @@
         <v>8.2032571950579239E-2</v>
       </c>
       <c r="N42" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5825,7 +10672,7 @@
         <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5861,7 +10708,7 @@
         <v>9.1147302167310235E-3</v>
       </c>
       <c r="N43" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -5908,7 +10755,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -5952,7 +10799,7 @@
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -5996,7 +10843,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="N47" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -6040,7 +10887,7 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="N48" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
@@ -6070,7 +10917,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
-      <c r="N50" s="72"/>
+      <c r="N50" s="69"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -6082,7 +10929,7 @@
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51" s="65">
+      <c r="D51" s="64">
         <v>365</v>
       </c>
       <c r="E51" s="6"/>
@@ -6094,7 +10941,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
-      <c r="N51" s="72"/>
+      <c r="N51" s="69"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
@@ -6116,7 +10963,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -6193,12 +11040,12 @@
         <v>0.74855466066564025</v>
       </c>
       <c r="N55" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D56" s="59">
         <v>0</v>
@@ -6272,7 +11119,7 @@
         <v>0.31</v>
       </c>
       <c r="N57" s="29" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6285,38 +11132,38 @@
       <c r="C58">
         <v>3</v>
       </c>
-      <c r="D58" s="68">
+      <c r="D58" s="65">
         <v>0.81857862607524046</v>
       </c>
-      <c r="E58" s="68">
+      <c r="E58" s="65">
         <v>0.60401127663817045</v>
       </c>
-      <c r="F58" s="68">
+      <c r="F58" s="65">
         <v>0.50424314073930243</v>
       </c>
-      <c r="G58" s="68">
+      <c r="G58" s="65">
         <v>0.43852754961069579</v>
       </c>
-      <c r="H58" s="68">
+      <c r="H58" s="65">
         <v>0.3894439272011006</v>
       </c>
-      <c r="I58" s="68">
+      <c r="I58" s="65">
         <v>0.35025141162564921</v>
       </c>
-      <c r="J58" s="68">
+      <c r="J58" s="65">
         <v>0.3176244762376727</v>
       </c>
-      <c r="K58" s="68">
+      <c r="K58" s="65">
         <v>0.28967579130223259</v>
       </c>
-      <c r="L58" s="68">
+      <c r="L58" s="65">
         <v>0.26523047596408661</v>
       </c>
-      <c r="M58" s="69">
+      <c r="M58" s="66">
         <v>0.24977435437416431</v>
       </c>
       <c r="N58" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
@@ -6360,15 +11207,15 @@
         <v>0.26</v>
       </c>
       <c r="N59" s="29" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B60" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6386,15 +11233,15 @@
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
       <c r="N60" s="29" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -6403,15 +11250,15 @@
         <v>7</v>
       </c>
       <c r="N61" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C62" s="23">
         <v>0</v>
@@ -6420,7 +11267,7 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
@@ -6437,7 +11284,7 @@
         <v>76</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C65" s="23">
         <v>0</v>
@@ -6455,7 +11302,7 @@
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -6463,7 +11310,7 @@
         <v>31</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C66" s="23">
         <v>0</v>
@@ -6481,7 +11328,7 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="29" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -6489,7 +11336,7 @@
         <v>30</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C67" s="23">
         <v>0</v>
@@ -6507,7 +11354,7 @@
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -6533,7 +11380,7 @@
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -6541,7 +11388,7 @@
         <v>29</v>
       </c>
       <c r="B69" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -6559,15 +11406,15 @@
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B70" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -6585,15 +11432,15 @@
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="61" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B71" s="61" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C71" s="23">
         <v>0</v>
@@ -6611,15 +11458,15 @@
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C72" s="23">
         <v>0</v>
@@ -6637,15 +11484,15 @@
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="27" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="62">
@@ -6661,15 +11508,15 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C74" s="23"/>
       <c r="D74" s="62">
@@ -6685,7 +11532,7 @@
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -6693,7 +11540,7 @@
         <v>184</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -6778,10 +11625,10 @@
         <v>500</v>
       </c>
       <c r="N78" s="29" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O78" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -6825,10 +11672,10 @@
         <v>2500</v>
       </c>
       <c r="N79" s="29" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="O79" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -6871,8 +11718,8 @@
       <c r="M80" s="32">
         <v>0</v>
       </c>
-      <c r="N80" s="73" t="s">
-        <v>289</v>
+      <c r="N80" s="70" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -6915,7 +11762,7 @@
       <c r="M81" s="32">
         <v>0</v>
       </c>
-      <c r="N81" s="73"/>
+      <c r="N81" s="70"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -6957,14 +11804,14 @@
       <c r="M82" s="32">
         <v>0</v>
       </c>
-      <c r="N82" s="73"/>
+      <c r="N82" s="70"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7010,10 +11857,10 @@
         <v>0</v>
       </c>
       <c r="N83" s="29" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O83" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -7057,7 +11904,7 @@
         <v>0.71017831608378845</v>
       </c>
       <c r="N84" s="29" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -7098,7 +11945,7 @@
         <v>0.27903808437325295</v>
       </c>
       <c r="N85" s="29" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -7139,7 +11986,7 @@
         <v>0.17944505081036816</v>
       </c>
       <c r="N86" s="29" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -7180,7 +12027,7 @@
         <v>7.9852017247483364E-2</v>
       </c>
       <c r="N87" s="29" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -7193,11 +12040,11 @@
       <c r="C88">
         <v>0</v>
       </c>
-      <c r="D88" s="70">
+      <c r="D88" s="67">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="N88" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -7210,36 +12057,36 @@
       <c r="C89">
         <v>0</v>
       </c>
-      <c r="D89" s="70">
+      <c r="D89" s="67">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="N89" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B90" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
-      <c r="D90" s="71">
+      <c r="D90" s="68">
         <v>32.5</v>
       </c>
       <c r="N90" s="29" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="27" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C91" s="23">
         <v>0</v>
@@ -7248,7 +12095,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -7913,441 +12760,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB261DB-46E7-492B-AFB6-C2555F1B51D3}">
-  <dimension ref="A1:N31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="M53" sqref="A4:M53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="8" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="11" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3">
-        <v>40</v>
-      </c>
-      <c r="H3">
-        <v>50</v>
-      </c>
-      <c r="I3">
-        <v>60</v>
-      </c>
-      <c r="J3">
-        <v>70</v>
-      </c>
-      <c r="K3" s="3">
-        <v>80</v>
-      </c>
-      <c r="L3" s="3">
-        <v>90</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="18"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="18"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="18"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="18"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-    </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-    </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-    </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D21:M53">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC36E01-676C-4E69-94CD-55557CFF10B1}">
   <dimension ref="A1:J28"/>
@@ -8365,12 +12777,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8381,10 +12793,10 @@
         <v>32</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -8398,7 +12810,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8412,7 +12824,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -8426,7 +12838,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8440,7 +12852,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -8454,7 +12866,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -8468,7 +12880,7 @@
         <v>60</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -8482,7 +12894,7 @@
         <v>70</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -8496,7 +12908,7 @@
         <v>80</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -8510,7 +12922,7 @@
         <v>90</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8662,28 +13074,28 @@
       </c>
     </row>
     <row r="19" spans="12:12" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L19" s="74"/>
+      <c r="L19" s="71"/>
     </row>
     <row r="20" spans="12:12" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="74"/>
+      <c r="L20" s="71"/>
     </row>
     <row r="21" spans="12:12" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L21" s="74"/>
+      <c r="L21" s="71"/>
     </row>
     <row r="22" spans="12:12" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="74"/>
+      <c r="L22" s="71"/>
     </row>
     <row r="40" spans="12:12" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L40" s="74"/>
+      <c r="L40" s="71"/>
     </row>
     <row r="41" spans="12:12" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L41" s="74"/>
+      <c r="L41" s="71"/>
     </row>
     <row r="42" spans="12:12" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L42" s="74"/>
+      <c r="L42" s="71"/>
     </row>
     <row r="43" spans="12:12" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L43" s="74"/>
+      <c r="L43" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="2">
